--- a/scatterplot_scratch.xlsx
+++ b/scatterplot_scratch.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="linear" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="quad" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -41,6 +42,18 @@
   </si>
   <si>
     <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAND()*($B$12-$B$11)+$B$11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a(x-h)^2+k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
   </si>
 </sst>
 </file>
@@ -197,7 +210,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -212,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>linear!$E$4:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -299,6 +312,18 @@
             </c:marker>
           </c:dPt>
           <c:dPt>
+            <c:idx val="77"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="78"/>
             <c:marker>
               <c:symbol val="square"/>
@@ -324,6 +349,30 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="86"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="95"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="96"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="8"/>
@@ -436,6 +485,26 @@
               <c:separator> </c:separator>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="77"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="78"/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
@@ -495,6 +564,46 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="95"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="96"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -530,634 +639,648 @@
             <c:trendlineType val="linear"/>
             <c:forward val="0"/>
             <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:f>linear!$D$5:$D$501</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="497"/>
                 <c:pt idx="0">
-                  <c:v>10.9533077958747</c:v>
+                  <c:v>79.9835152722301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.1934555834869</c:v>
+                  <c:v>76.0024874265443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.1684120654558</c:v>
+                  <c:v>59.9408168353461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.9545851992775</c:v>
+                  <c:v>76.7987346148622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.92142972052793</c:v>
+                  <c:v>95.8416917696644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.2885205352033</c:v>
+                  <c:v>128.9546971525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.15380987963929</c:v>
+                  <c:v>90.3790955458786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.30624378229919</c:v>
+                  <c:v>113.912345031283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.6035365681645</c:v>
+                  <c:v>89.3229034728111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.4497953958501</c:v>
+                  <c:v>126.653718174254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.56611194900828</c:v>
+                  <c:v>60.0764848167001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.41559251533162</c:v>
+                  <c:v>59.7532896017814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.289960482254</c:v>
+                  <c:v>49.0972081816652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.20445879061731</c:v>
+                  <c:v>62.4795524748303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1628003901511</c:v>
+                  <c:v>77.1903880994035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.7635060771458</c:v>
+                  <c:v>116.612955660283</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.4776862562186</c:v>
+                  <c:v>108.239626764507</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.27645061505444</c:v>
+                  <c:v>122.580089003682</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.4948242432362</c:v>
+                  <c:v>128.106614285228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.4424823691635</c:v>
+                  <c:v>66.7650452519615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.7699807473512</c:v>
+                  <c:v>114.670085616972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.651195766342</c:v>
+                  <c:v>125.553431077076</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.63204268468949</c:v>
+                  <c:v>66.5352845957449</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.1102638806004</c:v>
+                  <c:v>75.9648690842067</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.8124232102655</c:v>
+                  <c:v>110.10519001682</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.7613708817949</c:v>
+                  <c:v>93.8441377925535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.22118431727328</c:v>
+                  <c:v>87.3334836289986</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.95226813609192</c:v>
+                  <c:v>100.102227707873</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.7136521708646</c:v>
+                  <c:v>64.580493623223</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.6421915386367</c:v>
+                  <c:v>46.0579456730299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.2055225222697</c:v>
+                  <c:v>123.742438817654</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.0507571353061</c:v>
+                  <c:v>67.5681875698361</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.6391626482823</c:v>
+                  <c:v>55.5917165288099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.7829852289753</c:v>
+                  <c:v>97.2449838904157</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.2251238873672</c:v>
+                  <c:v>85.846851694812</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.3722309913543</c:v>
+                  <c:v>56.8162084417983</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.0366429402781</c:v>
+                  <c:v>48.6290942290156</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.6984898236881</c:v>
+                  <c:v>46.0867861634434</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.8835767547395</c:v>
+                  <c:v>92.1087471469544</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.4356491440258</c:v>
+                  <c:v>59.2777826095062</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.5056503278224</c:v>
+                  <c:v>89.5186248042775</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.9265828558278</c:v>
+                  <c:v>82.4599478962907</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22.9482741707382</c:v>
+                  <c:v>50.4553438140628</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.0970254822582</c:v>
+                  <c:v>100.431414399118</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.666490013249</c:v>
+                  <c:v>76.8306653253018</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24.0800570327618</c:v>
+                  <c:v>82.5945548208613</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.6592071376691</c:v>
+                  <c:v>101.573678249235</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.27738411134166</c:v>
+                  <c:v>128.867261133933</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.61214315902499</c:v>
+                  <c:v>84.5113276907606</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.0695347597968</c:v>
+                  <c:v>47.0964874367125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.33379829982048</c:v>
+                  <c:v>68.6465977948376</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.0207695503711</c:v>
+                  <c:v>40.6114345006013</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>15.0816194861323</c:v>
+                  <c:v>61.0371811979899</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.52133669441268</c:v>
+                  <c:v>61.6725460416103</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.8611680582662</c:v>
+                  <c:v>90.9381675302979</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.5022893524553</c:v>
+                  <c:v>71.7994783647232</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15.5663499111582</c:v>
+                  <c:v>113.520657686591</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.9006290756787</c:v>
+                  <c:v>113.548505860926</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18.2772797888281</c:v>
+                  <c:v>66.272459066389</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23.4865402520398</c:v>
+                  <c:v>89.9583594548512</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12.5935043284733</c:v>
+                  <c:v>64.5690174839438</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.10110511638664</c:v>
+                  <c:v>47.7378431946272</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.3898075232442</c:v>
+                  <c:v>122.987035736667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>22.0870834519176</c:v>
+                  <c:v>79.3166749610298</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.3354671227957</c:v>
+                  <c:v>118.316954481274</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>22.2436544724441</c:v>
+                  <c:v>107.932508002841</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.0074578831974</c:v>
+                  <c:v>113.727317171206</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.5945166865406</c:v>
+                  <c:v>70.5937340384438</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.9902013306258</c:v>
+                  <c:v>119.84853638087</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.2505755122285</c:v>
+                  <c:v>126.031594166364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>24.0261048220721</c:v>
+                  <c:v>56.5559546604834</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.83037183368207</c:v>
+                  <c:v>82.3271123017305</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21.9457469000883</c:v>
+                  <c:v>72.1005672354462</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>17.5761355657282</c:v>
+                  <c:v>40.7291740839986</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>23.626909916267</c:v>
+                  <c:v>70.3430568837692</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20.4489764888919</c:v>
+                  <c:v>61.9404670115388</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.0947958582998</c:v>
+                  <c:v>110.610571982531</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.1586195365107</c:v>
+                  <c:v>109.781214827129</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.9743024509781</c:v>
+                  <c:v>129.938846158453</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.75182298593604</c:v>
+                  <c:v>109.389728761588</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.8130196203276</c:v>
+                  <c:v>74.064996626374</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.6887987149823</c:v>
+                  <c:v>116.723429132648</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>23.086096962675</c:v>
+                  <c:v>100.64941328302</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>11.3382713829989</c:v>
+                  <c:v>41.4072248908505</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.37183253934719</c:v>
+                  <c:v>51.3544615549913</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.55373553709056</c:v>
+                  <c:v>104.538914207162</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>23.5497660352845</c:v>
+                  <c:v>45.102154064077</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24.0938872879416</c:v>
+                  <c:v>118.970824185096</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>17.9771379944343</c:v>
+                  <c:v>55.4547938501809</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.1693074572003</c:v>
+                  <c:v>107.002867391618</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.83398969420794</c:v>
+                  <c:v>79.5279698165197</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.26514279665233</c:v>
+                  <c:v>58.8036514989554</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.838618654894</c:v>
+                  <c:v>60.9139589897528</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>20.9210857233658</c:v>
+                  <c:v>71.5714436298648</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.56193602900285</c:v>
+                  <c:v>112.769247291254</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.4251790676292</c:v>
+                  <c:v>57.6670321206755</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.0545010182965</c:v>
+                  <c:v>101.133495974897</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16.7452443563682</c:v>
+                  <c:v>93.245761459225</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.59091308824181</c:v>
+                  <c:v>75.5409886935796</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>11.7842822782103</c:v>
+                  <c:v>108.098722743687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:f>linear!$E$5:$E$501</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="497"/>
                 <c:pt idx="0">
-                  <c:v>37.2390989417022</c:v>
+                  <c:v>434.597397048396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.4179436920676</c:v>
+                  <c:v>435.046161414635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.251743095949</c:v>
+                  <c:v>384.282032320936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.4829544181481</c:v>
+                  <c:v>466.500249369003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.2935878711197</c:v>
+                  <c:v>543.243377971056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.5855961064365</c:v>
+                  <c:v>722.785411920211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.2494643029885</c:v>
+                  <c:v>533.736248350752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.6059051093234</c:v>
+                  <c:v>641.92144541731</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.9673414328349</c:v>
+                  <c:v>512.235873662984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.7943320892439</c:v>
+                  <c:v>708.564429930695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.2229922224752</c:v>
+                  <c:v>382.297249273632</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.7562811093619</c:v>
+                  <c:v>388.713403223495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.9918137300187</c:v>
+                  <c:v>298.876802525905</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.3049604648511</c:v>
+                  <c:v>355.9246492351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.6847686656265</c:v>
+                  <c:v>447.034944235741</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.4914135837478</c:v>
+                  <c:v>616.436770489293</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.91445178943387</c:v>
+                  <c:v>625.890845645088</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.5737566415189</c:v>
+                  <c:v>686.635087569159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.7969026913762</c:v>
+                  <c:v>691.410265497567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.30169139472618</c:v>
+                  <c:v>402.628485508788</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.9097279317983</c:v>
+                  <c:v>635.30837126207</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.5059186345972</c:v>
+                  <c:v>696.46868954514</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.2819600721188</c:v>
+                  <c:v>396.703639348307</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.0522410210548</c:v>
+                  <c:v>453.370472347367</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.1777381695756</c:v>
+                  <c:v>607.910401393193</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.0872850916723</c:v>
+                  <c:v>528.784582726171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.3923733410612</c:v>
+                  <c:v>494.492782216144</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.0772935436591</c:v>
+                  <c:v>567.661203452299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.43807682005077</c:v>
+                  <c:v>403.227070137374</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.98175702977962</c:v>
+                  <c:v>277.654165248102</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.82752948243258</c:v>
+                  <c:v>672.888906463759</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34.2849667484577</c:v>
+                  <c:v>378.441041081326</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.142075521631095</c:v>
+                  <c:v>321.261206226179</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.7688289638262</c:v>
+                  <c:v>546.689175249167</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.1115543776448</c:v>
+                  <c:v>502.907267939542</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22.8255005421331</c:v>
+                  <c:v>368.347344731889</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.0941470795709</c:v>
+                  <c:v>329.935746011067</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.1324110013885</c:v>
+                  <c:v>277.740557575364</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.60381589906645</c:v>
+                  <c:v>539.010888362697</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.16345833372036</c:v>
+                  <c:v>349.12063823443</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.324619855019</c:v>
+                  <c:v>498.551482643551</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.3628320669858</c:v>
+                  <c:v>493.615128438387</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.71258358246878</c:v>
+                  <c:v>292.301294050941</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.1063022468828</c:v>
+                  <c:v>535.744175216429</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.0938014702299</c:v>
+                  <c:v>428.370010480223</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.36154235881006</c:v>
+                  <c:v>454.609817166634</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29.7791978915964</c:v>
+                  <c:v>570.719372996563</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.4833300963246</c:v>
+                  <c:v>727.903345180461</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.1881055696329</c:v>
+                  <c:v>460.052759899797</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.4783388928565</c:v>
+                  <c:v>279.163132725321</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.9106837719672</c:v>
+                  <c:v>412.885448387299</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38.904051395593</c:v>
+                  <c:v>235.109501018806</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24.6336802812589</c:v>
+                  <c:v>363.56603694577</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41.3384415408202</c:v>
+                  <c:v>348.877719816436</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.957310709037</c:v>
+                  <c:v>530.86700108057</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.9890597354653</c:v>
+                  <c:v>421.36888140236</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23.1359293728154</c:v>
+                  <c:v>626.913081884352</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22.0521009404999</c:v>
+                  <c:v>633.613616709568</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>16.0584087010937</c:v>
+                  <c:v>402.955283121482</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.93325797630691</c:v>
+                  <c:v>497.229703735194</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>32.794962070348</c:v>
+                  <c:v>369.219445123905</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>49.2745902813823</c:v>
+                  <c:v>289.52834895433</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25.9696444100135</c:v>
+                  <c:v>648.556478520983</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.32456462823378</c:v>
+                  <c:v>446.120276042076</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>18.208680368648</c:v>
+                  <c:v>667.889231144904</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.79933728662908</c:v>
+                  <c:v>572.562216745042</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24.4240751533227</c:v>
+                  <c:v>605.31931753476</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33.5481913736478</c:v>
+                  <c:v>411.948109161311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>28.3176648191438</c:v>
+                  <c:v>630.641412820683</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17.7444312755789</c:v>
+                  <c:v>682.546554332821</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.29248506459833</c:v>
+                  <c:v>363.002079816556</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43.9238528092367</c:v>
+                  <c:v>478.785003361624</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.58335525521097</c:v>
+                  <c:v>406.161808769958</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>18.6162851789661</c:v>
+                  <c:v>240.75843676428</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.54381596707275</c:v>
+                  <c:v>385.109872841375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.475507158409</c:v>
+                  <c:v>346.577590970373</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.5011621995581</c:v>
+                  <c:v>594.113363497602</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>46.9446271653542</c:v>
+                  <c:v>627.772700677042</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>19.8753890006634</c:v>
+                  <c:v>736.785417241461</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45.2375713901514</c:v>
+                  <c:v>616.72055961255</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>34.0536822573127</c:v>
+                  <c:v>447.734926668532</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>29.7051613404957</c:v>
+                  <c:v>662.231706004269</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.69539967277212</c:v>
+                  <c:v>555.218082315907</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>33.7007130207178</c:v>
+                  <c:v>248.286048239869</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40.8701896862673</c:v>
+                  <c:v>332.964657614908</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>47.7448529240708</c:v>
+                  <c:v>554.019442132004</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.48735422528433</c:v>
+                  <c:v>269.964390657881</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.44671307963537</c:v>
+                  <c:v>661.327769204324</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>16.6985757201261</c:v>
+                  <c:v>312.889497984039</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>34.4738744211965</c:v>
+                  <c:v>584.678263002825</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>50.2298731587277</c:v>
+                  <c:v>442.354702616232</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43.6579530903348</c:v>
+                  <c:v>376.539863922904</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.54905545460105</c:v>
+                  <c:v>386.929140093157</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.5197941510266</c:v>
+                  <c:v>394.362992792554</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43.1929142098611</c:v>
+                  <c:v>651.504217110099</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37.9934065699515</c:v>
+                  <c:v>321.898189818062</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>30.7173917960143</c:v>
+                  <c:v>541.470805786895</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>20.577875892161</c:v>
+                  <c:v>532.512915355933</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.2423806686982</c:v>
+                  <c:v>428.225412459941</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>33.078589312777</c:v>
+                  <c:v>625.803313485903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50954042"/>
-        <c:axId val="45132684"/>
+        <c:axId val="67344228"/>
+        <c:axId val="98062941"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50954042"/>
+        <c:axId val="67344228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,12 +1317,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45132684"/>
+        <c:crossAx val="98062941"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45132684"/>
+        <c:axId val="98062941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,9 +1359,817 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50954042"/>
+        <c:crossAx val="67344228"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quad!$F$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>quad!$E$5:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9.03736856411756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.40407645793662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.66116478631136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.21018905914273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.16627748294901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6473012689861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.67533351189451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.27430037550207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.72738246889435</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2222891724136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.85511389932163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.67768062996006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.78465119801036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.81639453674467</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.14189339313556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.57251732214987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.48381207008325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.90711296522967</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.96744383966928</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.72314234246086</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.71579311892463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.456296055369</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.39357596300241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75776879453246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.20339197797467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.42794772649689</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.79647053366411</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.02932140422854</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.90071593794277</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.00893137758635</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.67018074094582</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.53026963969445</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.88038652214873</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.77787866499954</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.87491045641688</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.05267562037959</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.09916356878638</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.69340393981787</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.39544444333908</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.16401731434014</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.54452736113081</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.51490071746803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.69842615511134</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.51117954393746</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.27928258878258</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.65856816661784</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.14623458861727</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6069402053371</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4812441720969</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.40798042479476</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.45874278976712</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.12855289467304</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.72345596342873</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.15414550384465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.96414144167644</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5042261573473</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.15484479878267</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.92169539054537</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.11922704804877</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.84016295033756</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.02968319073813</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.61889569721189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.62145100756836</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.88699793848481</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.98130673639973</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.51144639313472</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.66517065572449</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.24734962343343</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.89633364806669</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.42153390497239</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.54634120124068</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.01702537168321</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.72104959649369</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.13886794425455</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.43188737534147</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.29295236709095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.94194881169826</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.29276159059298</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.17684133046068</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.41092388316367</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.45314788065139</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.33109806558556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.51888368512073</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.09017540498473</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.49018166711709</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.37985369144564</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.46773893700145</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.98498105394613</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.83465963719229</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.83102092940584</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.01208864298532</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.99474579157254</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.33935988513762</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.08161898740423</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.62704193683511</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.13726185546588</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.80462296766544</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.00366150183688</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.9192782196663</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.77578385527154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>quad!$F$5:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.64387432028078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.29139908174171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.92811051090638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.85766732933208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.10660496100351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.57468166379097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.24802634374522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.69003453590269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.76075901781329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.37858620141276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.69114602100417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.59550186165088</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.70460392195588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4962682711724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2723927253079</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.42149331731317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.98732407041911</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.06560114734565</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9323123434024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.70050992793323</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.73889050878793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.15126917982902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.18040239146834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6289665430412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.87483073829806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.72975958030236</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.27481302302448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.53582797426629</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.64378787277627</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.26714753584528</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.00509862594045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.77517819272246</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5073208200441</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.20758500919449</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.26041891772631</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.14337119468246</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.94021755892328</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.47664661648422</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.25046491345152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.50571162838917</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.50348407656892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.05082721034239</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.10164728631271</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.73785184018119</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.91912929683714</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.75781011296626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.99492018203755</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.07878515693491</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.60171493561382</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.36907482225248</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.29975649819439</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.45854658338919</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.9028927948089</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.85187116833578</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.84525450731598</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.50513204268491</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.41455469876142</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.41099022998629</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.21148536700549</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7939594410396</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.7074497937235</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.52870483594774</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.66364368659199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.569509964585</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.2050144881764</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.46050289726532</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.40660944350293</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.48607915558039</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.30578583018649</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.07914179145525</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.72906305156347</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.40828851869429</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.74911875687444</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.58613427738376</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.83575793337579</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.57176238518712</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.12048117004503</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.74170715478478</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.87331264233067</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.67261687824377</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.75035823546341</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.46451959873173</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.55243877383781</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.79254920318164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.06987444327501</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.36560813075884</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.98517955356011</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.15969745443877</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.44983249862533</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.43300107333533</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.14280988305283</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.03715504460221</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.02802077151223</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.5469651282493</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.78840400079603</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.61967690559094</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.4332492475123</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.92291061267405</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.52701424341455</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.78991153439811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2375471"/>
+        <c:axId val="24921483"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2375471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24921483"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24921483"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2375471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1288,16 +2219,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374760</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1305,7 +2236,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5994360" y="447840"/>
+        <a:off x="5221080" y="180000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>565560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6185160" y="296640"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1324,1061 +2290,1061 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A4:G104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>10.9533077958747</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E2+$B$11*RAND()-$B$11</f>
-        <v>37.2390989417022</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.1934555834869</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E3+$B$11*RAND()-$B$11</f>
-        <v>34.4179436920676</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>79.9835152722301</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D5+2*$B$14*RAND()-$B$14)</f>
+        <v>434.597397048396</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>76.0024874265443</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D6+2*$B$14*RAND()-$B$14)</f>
+        <v>435.046161414635</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.1684120654558</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E4+$B$11*RAND()-$B$11</f>
-        <v>20.251743095949</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-2.53</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.9545851992775</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E5+$B$11*RAND()-$B$11</f>
-        <v>33.4829544181481</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>8.92142972052793</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E6+$B$11*RAND()-$B$11</f>
-        <v>42.2935878711197</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>59.9408168353461</v>
+      </c>
       <c r="E7" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>18.2885205352033</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E7+$B$11*RAND()-$B$11</f>
-        <v>16.5855961064365</v>
-      </c>
-      <c r="H7" s="1"/>
+        <f aca="true">($B$7+$B$8*D7+2*$B$14*RAND()-$B$14)</f>
+        <v>384.282032320936</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="D8" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>76.7987346148622</v>
+      </c>
       <c r="E8" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>8.15380987963929</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E8+$B$11*RAND()-$B$11</f>
-        <v>44.2494643029885</v>
-      </c>
-      <c r="H8" s="1"/>
+        <f aca="true">($B$7+$B$8*D8+2*$B$14*RAND()-$B$14)</f>
+        <v>466.500249369003</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>25</v>
+      <c r="D9" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>95.8416917696644</v>
       </c>
       <c r="E9" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>8.30624378229919</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E9+$B$11*RAND()-$B$11</f>
-        <v>41.6059051093234</v>
-      </c>
-      <c r="H9" s="1"/>
+        <f aca="true">($B$7+$B$8*D9+2*$B$14*RAND()-$B$14)</f>
+        <v>543.243377971056</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>128.9546971525</v>
+      </c>
       <c r="E10" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.6035365681645</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E10+$B$11*RAND()-$B$11</f>
-        <v>17.9673414328349</v>
-      </c>
-      <c r="H10" s="1"/>
+        <f aca="true">($B$7+$B$8*D10+2*$B$14*RAND()-$B$14)</f>
+        <v>722.785411920211</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>90.3790955458786</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D11+2*$B$14*RAND()-$B$14)</f>
+        <v>533.736248350752</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>113.912345031283</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D12+2*$B$14*RAND()-$B$14)</f>
+        <v>641.92144541731</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>89.3229034728111</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D13+2*$B$14*RAND()-$B$14)</f>
+        <v>512.235873662984</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>10.4497953958501</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E11+$B$11*RAND()-$B$11</f>
-        <v>37.7943320892439</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.56611194900828</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E12+$B$11*RAND()-$B$11</f>
-        <v>43.2229922224752</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>8.41559251533162</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E13+$B$11*RAND()-$B$11</f>
-        <v>41.7562811093619</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>126.653718174254</v>
+      </c>
       <c r="E14" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.289960482254</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E14+$B$11*RAND()-$B$11</f>
-        <v>19.9918137300187</v>
-      </c>
+        <f aca="true">($B$7+$B$8*D14+2*$B$14*RAND()-$B$14)</f>
+        <v>708.564429930695</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>60.0764848167001</v>
+      </c>
       <c r="E15" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>5.20445879061731</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E15+$B$11*RAND()-$B$11</f>
-        <v>50.3049604648511</v>
-      </c>
+        <f aca="true">($B$7+$B$8*D15+2*$B$14*RAND()-$B$14)</f>
+        <v>382.297249273632</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>59.7532896017814</v>
+      </c>
       <c r="E16" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>6.1628003901511</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E16+$B$11*RAND()-$B$11</f>
-        <v>48.6847686656265</v>
-      </c>
+        <f aca="true">($B$7+$B$8*D16+2*$B$14*RAND()-$B$14)</f>
+        <v>388.713403223495</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>49.0972081816652</v>
+      </c>
       <c r="E17" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>19.7635060771458</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E17+$B$11*RAND()-$B$11</f>
-        <v>14.4914135837478</v>
+        <f aca="true">($B$7+$B$8*D17+2*$B$14*RAND()-$B$14)</f>
+        <v>298.876802525905</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>62.4795524748303</v>
+      </c>
       <c r="E18" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>22.4776862562186</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E18+$B$11*RAND()-$B$11</f>
-        <v>6.91445178943387</v>
+        <f aca="true">($B$7+$B$8*D18+2*$B$14*RAND()-$B$14)</f>
+        <v>355.9246492351</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>77.1903880994035</v>
+      </c>
       <c r="E19" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.27645061505444</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E19+$B$11*RAND()-$B$11</f>
-        <v>45.5737566415189</v>
+        <f aca="true">($B$7+$B$8*D19+2*$B$14*RAND()-$B$14)</f>
+        <v>447.034944235741</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>116.612955660283</v>
+      </c>
       <c r="E20" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>14.4948242432362</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E20+$B$11*RAND()-$B$11</f>
-        <v>25.7969026913762</v>
+        <f aca="true">($B$7+$B$8*D20+2*$B$14*RAND()-$B$14)</f>
+        <v>616.436770489293</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>108.239626764507</v>
+      </c>
       <c r="E21" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>21.4424823691635</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E21+$B$11*RAND()-$B$11</f>
-        <v>9.30169139472618</v>
+        <f aca="true">($B$7+$B$8*D21+2*$B$14*RAND()-$B$14)</f>
+        <v>625.890845645088</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>122.580089003682</v>
+      </c>
       <c r="E22" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>16.7699807473512</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E22+$B$11*RAND()-$B$11</f>
-        <v>21.9097279317983</v>
+        <f aca="true">($B$7+$B$8*D22+2*$B$14*RAND()-$B$14)</f>
+        <v>686.635087569159</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>128.106614285228</v>
+      </c>
       <c r="E23" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>20.651195766342</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E23+$B$11*RAND()-$B$11</f>
-        <v>11.5059186345972</v>
+        <f aca="true">($B$7+$B$8*D23+2*$B$14*RAND()-$B$14)</f>
+        <v>691.410265497567</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>66.7650452519615</v>
+      </c>
       <c r="E24" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.63204268468949</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E24+$B$11*RAND()-$B$11</f>
-        <v>45.2819600721188</v>
+        <f aca="true">($B$7+$B$8*D24+2*$B$14*RAND()-$B$14)</f>
+        <v>402.628485508788</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>114.670085616972</v>
+      </c>
       <c r="E25" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>20.1102638806004</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E25+$B$11*RAND()-$B$11</f>
-        <v>14.0522410210548</v>
+        <f aca="true">($B$7+$B$8*D25+2*$B$14*RAND()-$B$14)</f>
+        <v>635.30837126207</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>125.553431077076</v>
+      </c>
       <c r="E26" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>19.8124232102655</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E26+$B$11*RAND()-$B$11</f>
-        <v>12.1777381695756</v>
+        <f aca="true">($B$7+$B$8*D26+2*$B$14*RAND()-$B$14)</f>
+        <v>696.46868954514</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>66.5352845957449</v>
+      </c>
       <c r="E27" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>12.7613708817949</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E27+$B$11*RAND()-$B$11</f>
-        <v>32.0872850916723</v>
+        <f aca="true">($B$7+$B$8*D27+2*$B$14*RAND()-$B$14)</f>
+        <v>396.703639348307</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>75.9648690842067</v>
+      </c>
       <c r="E28" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.22118431727328</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E28+$B$11*RAND()-$B$11</f>
-        <v>44.3923733410612</v>
+        <f aca="true">($B$7+$B$8*D28+2*$B$14*RAND()-$B$14)</f>
+        <v>453.370472347367</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>110.10519001682</v>
+      </c>
       <c r="E29" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>5.95226813609192</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E29+$B$11*RAND()-$B$11</f>
-        <v>48.0772935436591</v>
+        <f aca="true">($B$7+$B$8*D29+2*$B$14*RAND()-$B$14)</f>
+        <v>607.910401393193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>93.8441377925535</v>
+      </c>
       <c r="E30" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.7136521708646</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E30+$B$11*RAND()-$B$11</f>
-        <v>1.43807682005077</v>
+        <f aca="true">($B$7+$B$8*D30+2*$B$14*RAND()-$B$14)</f>
+        <v>528.784582726171</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>87.3334836289986</v>
+      </c>
       <c r="E31" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.6421915386367</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E31+$B$11*RAND()-$B$11</f>
-        <v>3.98175702977962</v>
+        <f aca="true">($B$7+$B$8*D31+2*$B$14*RAND()-$B$14)</f>
+        <v>494.492782216144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>100.102227707873</v>
+      </c>
       <c r="E32" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.2055225222697</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E32+$B$11*RAND()-$B$11</f>
-        <v>1.82752948243258</v>
+        <f aca="true">($B$7+$B$8*D32+2*$B$14*RAND()-$B$14)</f>
+        <v>567.661203452299</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>64.580493623223</v>
+      </c>
       <c r="E33" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>12.0507571353061</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E33+$B$11*RAND()-$B$11</f>
-        <v>34.2849667484577</v>
+        <f aca="true">($B$7+$B$8*D33+2*$B$14*RAND()-$B$14)</f>
+        <v>403.227070137374</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>46.0579456730299</v>
+      </c>
       <c r="E34" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.6391626482823</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E34+$B$11*RAND()-$B$11</f>
-        <v>0.142075521631095</v>
+        <f aca="true">($B$7+$B$8*D34+2*$B$14*RAND()-$B$14)</f>
+        <v>277.654165248102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>123.742438817654</v>
+      </c>
       <c r="E35" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>18.7829852289753</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E35+$B$11*RAND()-$B$11</f>
-        <v>15.7688289638262</v>
+        <f aca="true">($B$7+$B$8*D35+2*$B$14*RAND()-$B$14)</f>
+        <v>672.888906463759</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>67.5681875698361</v>
+      </c>
       <c r="E36" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>18.2251238873672</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E36+$B$11*RAND()-$B$11</f>
-        <v>16.1115543776448</v>
+        <f aca="true">($B$7+$B$8*D36+2*$B$14*RAND()-$B$14)</f>
+        <v>378.441041081326</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>55.5917165288099</v>
+      </c>
       <c r="E37" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>16.3722309913543</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E37+$B$11*RAND()-$B$11</f>
-        <v>22.8255005421331</v>
+        <f aca="true">($B$7+$B$8*D37+2*$B$14*RAND()-$B$14)</f>
+        <v>321.261206226179</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>97.2449838904157</v>
+      </c>
       <c r="E38" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>20.0366429402781</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E38+$B$11*RAND()-$B$11</f>
-        <v>13.0941470795709</v>
+        <f aca="true">($B$7+$B$8*D38+2*$B$14*RAND()-$B$14)</f>
+        <v>546.689175249167</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>85.846851694812</v>
+      </c>
       <c r="E39" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>10.6984898236881</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E39+$B$11*RAND()-$B$11</f>
-        <v>36.1324110013885</v>
+        <f aca="true">($B$7+$B$8*D39+2*$B$14*RAND()-$B$14)</f>
+        <v>502.907267939542</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>56.8162084417983</v>
+      </c>
       <c r="E40" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>21.8835767547395</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E40+$B$11*RAND()-$B$11</f>
-        <v>9.60381589906645</v>
+        <f aca="true">($B$7+$B$8*D40+2*$B$14*RAND()-$B$14)</f>
+        <v>368.347344731889</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>48.6290942290156</v>
+      </c>
       <c r="E41" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.4356491440258</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E41+$B$11*RAND()-$B$11</f>
-        <v>3.16345833372036</v>
+        <f aca="true">($B$7+$B$8*D41+2*$B$14*RAND()-$B$14)</f>
+        <v>329.935746011067</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>46.0867861634434</v>
+      </c>
       <c r="E42" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>9.5056503278224</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E42+$B$11*RAND()-$B$11</f>
-        <v>40.324619855019</v>
+        <f aca="true">($B$7+$B$8*D42+2*$B$14*RAND()-$B$14)</f>
+        <v>277.740557575364</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>92.1087471469544</v>
+      </c>
       <c r="E43" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>12.9265828558278</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E43+$B$11*RAND()-$B$11</f>
-        <v>30.3628320669858</v>
+        <f aca="true">($B$7+$B$8*D43+2*$B$14*RAND()-$B$14)</f>
+        <v>539.010888362697</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>59.2777826095062</v>
+      </c>
       <c r="E44" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>22.9482741707382</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E44+$B$11*RAND()-$B$11</f>
-        <v>6.71258358246878</v>
+        <f aca="true">($B$7+$B$8*D44+2*$B$14*RAND()-$B$14)</f>
+        <v>349.12063823443</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>89.5186248042775</v>
+      </c>
       <c r="E45" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>15.0970254822582</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E45+$B$11*RAND()-$B$11</f>
-        <v>24.1063022468828</v>
+        <f aca="true">($B$7+$B$8*D45+2*$B$14*RAND()-$B$14)</f>
+        <v>498.551482643551</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>82.4599478962907</v>
+      </c>
       <c r="E46" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.666490013249</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E46+$B$11*RAND()-$B$11</f>
-        <v>4.0938014702299</v>
+        <f aca="true">($B$7+$B$8*D46+2*$B$14*RAND()-$B$14)</f>
+        <v>493.615128438387</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>50.4553438140628</v>
+      </c>
       <c r="E47" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.0800570327618</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E47+$B$11*RAND()-$B$11</f>
-        <v>2.36154235881006</v>
+        <f aca="true">($B$7+$B$8*D47+2*$B$14*RAND()-$B$14)</f>
+        <v>292.301294050941</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>100.431414399118</v>
+      </c>
       <c r="E48" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>13.6592071376691</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E48+$B$11*RAND()-$B$11</f>
-        <v>29.7791978915964</v>
+        <f aca="true">($B$7+$B$8*D48+2*$B$14*RAND()-$B$14)</f>
+        <v>535.744175216429</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>76.8306653253018</v>
+      </c>
       <c r="E49" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>9.27738411134166</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E49+$B$11*RAND()-$B$11</f>
-        <v>41.4833300963246</v>
+        <f aca="true">($B$7+$B$8*D49+2*$B$14*RAND()-$B$14)</f>
+        <v>428.370010480223</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>82.5945548208613</v>
+      </c>
       <c r="E50" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>5.61214315902499</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E50+$B$11*RAND()-$B$11</f>
-        <v>49.1881055696329</v>
+        <f aca="true">($B$7+$B$8*D50+2*$B$14*RAND()-$B$14)</f>
+        <v>454.609817166634</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>101.573678249235</v>
+      </c>
       <c r="E51" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.0695347597968</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E51+$B$11*RAND()-$B$11</f>
-        <v>36.4783388928565</v>
+        <f aca="true">($B$7+$B$8*D51+2*$B$14*RAND()-$B$14)</f>
+        <v>570.719372996563</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>128.867261133933</v>
+      </c>
       <c r="E52" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>6.33379829982048</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E52+$B$11*RAND()-$B$11</f>
-        <v>46.9106837719672</v>
+        <f aca="true">($B$7+$B$8*D52+2*$B$14*RAND()-$B$14)</f>
+        <v>727.903345180461</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>84.5113276907606</v>
+      </c>
       <c r="E53" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>10.0207695503711</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E53+$B$11*RAND()-$B$11</f>
-        <v>38.904051395593</v>
+        <f aca="true">($B$7+$B$8*D53+2*$B$14*RAND()-$B$14)</f>
+        <v>460.052759899797</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>47.0964874367125</v>
+      </c>
       <c r="E54" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>15.0816194861323</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E54+$B$11*RAND()-$B$11</f>
-        <v>24.6336802812589</v>
+        <f aca="true">($B$7+$B$8*D54+2*$B$14*RAND()-$B$14)</f>
+        <v>279.163132725321</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>68.6465977948376</v>
+      </c>
       <c r="E55" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>8.52133669441268</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E55+$B$11*RAND()-$B$11</f>
-        <v>41.3384415408202</v>
+        <f aca="true">($B$7+$B$8*D55+2*$B$14*RAND()-$B$14)</f>
+        <v>412.885448387299</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>40.6114345006013</v>
+      </c>
       <c r="E56" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.8611680582662</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E56+$B$11*RAND()-$B$11</f>
-        <v>34.957310709037</v>
+        <f aca="true">($B$7+$B$8*D56+2*$B$14*RAND()-$B$14)</f>
+        <v>235.109501018806</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>61.0371811979899</v>
+      </c>
       <c r="E57" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.5022893524553</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E57+$B$11*RAND()-$B$11</f>
-        <v>18.9890597354653</v>
+        <f aca="true">($B$7+$B$8*D57+2*$B$14*RAND()-$B$14)</f>
+        <v>363.56603694577</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>61.6725460416103</v>
+      </c>
       <c r="E58" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>15.5663499111582</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E58+$B$11*RAND()-$B$11</f>
-        <v>23.1359293728154</v>
+        <f aca="true">($B$7+$B$8*D58+2*$B$14*RAND()-$B$14)</f>
+        <v>348.877719816436</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>90.9381675302979</v>
+      </c>
       <c r="E59" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>16.9006290756787</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E59+$B$11*RAND()-$B$11</f>
-        <v>22.0521009404999</v>
+        <f aca="true">($B$7+$B$8*D59+2*$B$14*RAND()-$B$14)</f>
+        <v>530.86700108057</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>71.7994783647232</v>
+      </c>
       <c r="E60" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>18.2772797888281</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E60+$B$11*RAND()-$B$11</f>
-        <v>16.0584087010937</v>
+        <f aca="true">($B$7+$B$8*D60+2*$B$14*RAND()-$B$14)</f>
+        <v>421.36888140236</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>113.520657686591</v>
+      </c>
       <c r="E61" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.4865402520398</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E61+$B$11*RAND()-$B$11</f>
-        <v>4.93325797630691</v>
+        <f aca="true">($B$7+$B$8*D61+2*$B$14*RAND()-$B$14)</f>
+        <v>626.913081884352</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>113.548505860926</v>
+      </c>
       <c r="E62" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>12.5935043284733</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E62+$B$11*RAND()-$B$11</f>
-        <v>32.794962070348</v>
+        <f aca="true">($B$7+$B$8*D62+2*$B$14*RAND()-$B$14)</f>
+        <v>633.613616709568</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>66.272459066389</v>
+      </c>
       <c r="E63" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>6.10110511638664</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E63+$B$11*RAND()-$B$11</f>
-        <v>49.2745902813823</v>
+        <f aca="true">($B$7+$B$8*D63+2*$B$14*RAND()-$B$14)</f>
+        <v>402.955283121482</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>89.9583594548512</v>
+      </c>
       <c r="E64" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>15.3898075232442</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E64+$B$11*RAND()-$B$11</f>
-        <v>25.9696444100135</v>
+        <f aca="true">($B$7+$B$8*D64+2*$B$14*RAND()-$B$14)</f>
+        <v>497.229703735194</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>64.5690174839438</v>
+      </c>
       <c r="E65" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>22.0870834519176</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E65+$B$11*RAND()-$B$11</f>
-        <v>7.32456462823378</v>
+        <f aca="true">($B$7+$B$8*D65+2*$B$14*RAND()-$B$14)</f>
+        <v>369.219445123905</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>47.7378431946272</v>
+      </c>
       <c r="E66" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.3354671227957</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E66+$B$11*RAND()-$B$11</f>
-        <v>18.208680368648</v>
+        <f aca="true">($B$7+$B$8*D66+2*$B$14*RAND()-$B$14)</f>
+        <v>289.52834895433</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>122.987035736667</v>
+      </c>
       <c r="E67" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>22.2436544724441</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E67+$B$11*RAND()-$B$11</f>
-        <v>7.79933728662908</v>
+        <f aca="true">($B$7+$B$8*D67+2*$B$14*RAND()-$B$14)</f>
+        <v>648.556478520983</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>79.3166749610298</v>
+      </c>
       <c r="E68" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>15.0074578831974</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E68+$B$11*RAND()-$B$11</f>
-        <v>24.4240751533227</v>
+        <f aca="true">($B$7+$B$8*D68+2*$B$14*RAND()-$B$14)</f>
+        <v>446.120276042076</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>118.316954481274</v>
+      </c>
       <c r="E69" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.5945166865406</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E69+$B$11*RAND()-$B$11</f>
-        <v>33.5481913736478</v>
+        <f aca="true">($B$7+$B$8*D69+2*$B$14*RAND()-$B$14)</f>
+        <v>667.889231144904</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>107.932508002841</v>
+      </c>
       <c r="E70" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>13.9902013306258</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E70+$B$11*RAND()-$B$11</f>
-        <v>28.3176648191438</v>
+        <f aca="true">($B$7+$B$8*D70+2*$B$14*RAND()-$B$14)</f>
+        <v>572.562216745042</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>113.727317171206</v>
+      </c>
       <c r="E71" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>18.2505755122285</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E71+$B$11*RAND()-$B$11</f>
-        <v>17.7444312755789</v>
+        <f aca="true">($B$7+$B$8*D71+2*$B$14*RAND()-$B$14)</f>
+        <v>605.31931753476</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>70.5937340384438</v>
+      </c>
       <c r="E72" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.0261048220721</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E72+$B$11*RAND()-$B$11</f>
-        <v>2.29248506459833</v>
+        <f aca="true">($B$7+$B$8*D72+2*$B$14*RAND()-$B$14)</f>
+        <v>411.948109161311</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>119.84853638087</v>
+      </c>
       <c r="E73" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.83037183368207</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E73+$B$11*RAND()-$B$11</f>
-        <v>43.9238528092367</v>
+        <f aca="true">($B$7+$B$8*D73+2*$B$14*RAND()-$B$14)</f>
+        <v>630.641412820683</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>126.031594166364</v>
+      </c>
       <c r="E74" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>21.9457469000883</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E74+$B$11*RAND()-$B$11</f>
-        <v>6.58335525521097</v>
+        <f aca="true">($B$7+$B$8*D74+2*$B$14*RAND()-$B$14)</f>
+        <v>682.546554332821</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>56.5559546604834</v>
+      </c>
       <c r="E75" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.5761355657282</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E75+$B$11*RAND()-$B$11</f>
-        <v>18.6162851789661</v>
+        <f aca="true">($B$7+$B$8*D75+2*$B$14*RAND()-$B$14)</f>
+        <v>363.002079816556</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>82.3271123017305</v>
+      </c>
       <c r="E76" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.626909916267</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E76+$B$11*RAND()-$B$11</f>
-        <v>2.54381596707275</v>
+        <f aca="true">($B$7+$B$8*D76+2*$B$14*RAND()-$B$14)</f>
+        <v>478.785003361624</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>72.1005672354462</v>
+      </c>
       <c r="E77" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>20.4489764888919</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E77+$B$11*RAND()-$B$11</f>
-        <v>10.475507158409</v>
+        <f aca="true">($B$7+$B$8*D77+2*$B$14*RAND()-$B$14)</f>
+        <v>406.161808769958</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>40.7291740839986</v>
+      </c>
       <c r="E78" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>21.0947958582998</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E78+$B$11*RAND()-$B$11</f>
-        <v>10.5011621995581</v>
+        <f aca="true">($B$7+$B$8*D78+2*$B$14*RAND()-$B$14)</f>
+        <v>240.75843676428</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>70.3430568837692</v>
+      </c>
       <c r="E79" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>6.1586195365107</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E79+$B$11*RAND()-$B$11</f>
-        <v>46.9446271653542</v>
+        <f aca="true">($B$7+$B$8*D79+2*$B$14*RAND()-$B$14)</f>
+        <v>385.109872841375</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>61.9404670115388</v>
+      </c>
       <c r="E80" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>16.9743024509781</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E80+$B$11*RAND()-$B$11</f>
-        <v>19.8753890006634</v>
+        <f aca="true">($B$7+$B$8*D80+2*$B$14*RAND()-$B$14)</f>
+        <v>346.577590970373</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>110.610571982531</v>
+      </c>
       <c r="E81" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.75182298593604</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E81+$B$11*RAND()-$B$11</f>
-        <v>45.2375713901514</v>
+        <f aca="true">($B$7+$B$8*D81+2*$B$14*RAND()-$B$14)</f>
+        <v>594.113363497602</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>109.781214827129</v>
+      </c>
       <c r="E82" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.8130196203276</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E82+$B$11*RAND()-$B$11</f>
-        <v>34.0536822573127</v>
+        <f aca="true">($B$7+$B$8*D82+2*$B$14*RAND()-$B$14)</f>
+        <v>627.772700677042</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>129.938846158453</v>
+      </c>
       <c r="E83" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>13.6887987149823</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E83+$B$11*RAND()-$B$11</f>
-        <v>29.7051613404957</v>
+        <f aca="true">($B$7+$B$8*D83+2*$B$14*RAND()-$B$14)</f>
+        <v>736.785417241461</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>109.389728761588</v>
+      </c>
       <c r="E84" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.086096962675</v>
-      </c>
-      <c r="F84" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E84+$B$11*RAND()-$B$11</f>
-        <v>4.69539967277212</v>
+        <f aca="true">($B$7+$B$8*D84+2*$B$14*RAND()-$B$14)</f>
+        <v>616.72055961255</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>74.064996626374</v>
+      </c>
       <c r="E85" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.3382713829989</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E85+$B$11*RAND()-$B$11</f>
-        <v>33.7007130207178</v>
+        <f aca="true">($B$7+$B$8*D85+2*$B$14*RAND()-$B$14)</f>
+        <v>447.734926668532</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>116.723429132648</v>
+      </c>
       <c r="E86" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>9.37183253934719</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E86+$B$11*RAND()-$B$11</f>
-        <v>40.8701896862673</v>
+        <f aca="true">($B$7+$B$8*D86+2*$B$14*RAND()-$B$14)</f>
+        <v>662.231706004269</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>100.64941328302</v>
+      </c>
       <c r="E87" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>6.55373553709056</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E87+$B$11*RAND()-$B$11</f>
-        <v>47.7448529240708</v>
+        <f aca="true">($B$7+$B$8*D87+2*$B$14*RAND()-$B$14)</f>
+        <v>555.218082315907</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>41.4072248908505</v>
+      </c>
       <c r="E88" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.5497660352845</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E88+$B$11*RAND()-$B$11</f>
-        <v>3.48735422528433</v>
+        <f aca="true">($B$7+$B$8*D88+2*$B$14*RAND()-$B$14)</f>
+        <v>248.286048239869</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>51.3544615549913</v>
+      </c>
       <c r="E89" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>24.0938872879416</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E89+$B$11*RAND()-$B$11</f>
-        <v>3.44671307963537</v>
+        <f aca="true">($B$7+$B$8*D89+2*$B$14*RAND()-$B$14)</f>
+        <v>332.964657614908</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>104.538914207162</v>
+      </c>
       <c r="E90" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>17.9771379944343</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E90+$B$11*RAND()-$B$11</f>
-        <v>16.6985757201261</v>
+        <f aca="true">($B$7+$B$8*D90+2*$B$14*RAND()-$B$14)</f>
+        <v>554.019442132004</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>45.102154064077</v>
+      </c>
       <c r="E91" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.1693074572003</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E91+$B$11*RAND()-$B$11</f>
-        <v>34.4738744211965</v>
+        <f aca="true">($B$7+$B$8*D91+2*$B$14*RAND()-$B$14)</f>
+        <v>269.964390657881</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>118.970824185096</v>
+      </c>
       <c r="E92" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>5.83398969420794</v>
-      </c>
-      <c r="F92" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E92+$B$11*RAND()-$B$11</f>
-        <v>50.2298731587277</v>
+        <f aca="true">($B$7+$B$8*D92+2*$B$14*RAND()-$B$14)</f>
+        <v>661.327769204324</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>55.4547938501809</v>
+      </c>
       <c r="E93" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.26514279665233</v>
-      </c>
-      <c r="F93" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E93+$B$11*RAND()-$B$11</f>
-        <v>43.6579530903348</v>
+        <f aca="true">($B$7+$B$8*D93+2*$B$14*RAND()-$B$14)</f>
+        <v>312.889497984039</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>107.002867391618</v>
+      </c>
       <c r="E94" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>23.838618654894</v>
-      </c>
-      <c r="F94" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E94+$B$11*RAND()-$B$11</f>
-        <v>2.54905545460105</v>
+        <f aca="true">($B$7+$B$8*D94+2*$B$14*RAND()-$B$14)</f>
+        <v>584.678263002825</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>79.5279698165197</v>
+      </c>
       <c r="E95" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>20.9210857233658</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E95+$B$11*RAND()-$B$11</f>
-        <v>11.5197941510266</v>
+        <f aca="true">($B$7+$B$8*D95+2*$B$14*RAND()-$B$14)</f>
+        <v>442.354702616232</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>58.8036514989554</v>
+      </c>
       <c r="E96" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>7.56193602900285</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E96+$B$11*RAND()-$B$11</f>
-        <v>43.1929142098611</v>
+        <f aca="true">($B$7+$B$8*D96+2*$B$14*RAND()-$B$14)</f>
+        <v>376.539863922904</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>60.9139589897528</v>
+      </c>
       <c r="E97" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>10.4251790676292</v>
-      </c>
-      <c r="F97" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E97+$B$11*RAND()-$B$11</f>
-        <v>37.9934065699515</v>
+        <f aca="true">($B$7+$B$8*D97+2*$B$14*RAND()-$B$14)</f>
+        <v>386.929140093157</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>71.5714436298648</v>
+      </c>
       <c r="E98" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>13.0545010182965</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E98+$B$11*RAND()-$B$11</f>
-        <v>30.7173917960143</v>
+        <f aca="true">($B$7+$B$8*D98+2*$B$14*RAND()-$B$14)</f>
+        <v>394.362992792554</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>112.769247291254</v>
+      </c>
       <c r="E99" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>16.7452443563682</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E99+$B$11*RAND()-$B$11</f>
-        <v>20.577875892161</v>
+        <f aca="true">($B$7+$B$8*D99+2*$B$14*RAND()-$B$14)</f>
+        <v>651.504217110099</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>57.6670321206755</v>
+      </c>
       <c r="E100" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>8.59091308824181</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E100+$B$11*RAND()-$B$11</f>
-        <v>43.2423806686982</v>
+        <f aca="true">($B$7+$B$8*D100+2*$B$14*RAND()-$B$14)</f>
+        <v>321.898189818062</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>101.133495974897</v>
+      </c>
       <c r="E101" s="1" t="n">
-        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
-        <v>11.7842822782103</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <f aca="true">$B$4+$B$5*E101+$B$11*RAND()-$B$11</f>
-        <v>33.078589312777</v>
+        <f aca="true">($B$7+$B$8*D101+2*$B$14*RAND()-$B$14)</f>
+        <v>541.470805786895</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>93.245761459225</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D102+2*$B$14*RAND()-$B$14)</f>
+        <v>532.512915355933</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>75.5409886935796</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D103+2*$B$14*RAND()-$B$14)</f>
+        <v>428.225412459941</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>108.098722743687</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <f aca="true">($B$7+$B$8*D104+2*$B$14*RAND()-$B$14)</f>
+        <v>625.803313485903</v>
       </c>
     </row>
   </sheetData>
@@ -2391,4 +3357,1088 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:F104"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.03736856411756</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="true">$B$7*(E5-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.64387432028078</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.40407645793662</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="true">$B$7*(E6-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.29139908174171</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.66116478631136</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="true">$B$7*(E7-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.92811051090638</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">AVERAGE(B11:B12)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.21018905914273</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="true">$B$7*(E8-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.85766732933208</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.16627748294901</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="true">$B$7*(E9-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.10660496100351</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.6473012689861</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="true">$B$7*(E10-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.57468166379097</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.67533351189451</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="true">$B$7*(E11-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.24802634374522</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.27430037550207</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="true">$B$7*(E12-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.69003453590269</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.72738246889435</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="true">$B$7*(E13-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.76075901781329</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.2222891724136</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="true">$B$7*(E14-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.37858620141276</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.85511389932163</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="true">$B$7*(E15-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.69114602100417</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.67768062996006</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="true">$B$7*(E16-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.59550186165088</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.78465119801036</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="true">$B$7*(E17-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.70460392195588</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.81639453674467</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="true">$B$7*(E18-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.4962682711724</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.14189339313556</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="true">$B$7*(E19-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.2723927253079</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.57251732214987</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="true">$B$7*(E20-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.42149331731317</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.48381207008325</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="true">$B$7*(E21-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.98732407041911</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.90711296522967</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <f aca="true">$B$7*(E22-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.06560114734565</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.96744383966928</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <f aca="true">$B$7*(E23-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.9323123434024</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.72314234246086</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <f aca="true">$B$7*(E24-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.70050992793323</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.71579311892463</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <f aca="true">$B$7*(E25-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.73889050878793</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.456296055369</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <f aca="true">$B$7*(E26-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.15126917982902</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.39357596300241</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="true">$B$7*(E27-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.18040239146834</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.75776879453246</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="true">$B$7*(E28-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.6289665430412</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.20339197797467</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="true">$B$7*(E29-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.87483073829806</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.42794772649689</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="true">$B$7*(E30-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.72975958030236</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.79647053366411</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="true">$B$7*(E31-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.27481302302448</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.02932140422854</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <f aca="true">$B$7*(E32-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.53582797426629</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.90071593794277</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <f aca="true">$B$7*(E33-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.64378787277627</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.00893137758635</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <f aca="true">$B$7*(E34-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.26714753584528</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.67018074094582</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <f aca="true">$B$7*(E35-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.00509862594045</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.53026963969445</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="true">$B$7*(E36-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.77517819272246</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.88038652214873</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <f aca="true">$B$7*(E37-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.5073208200441</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.77787866499954</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="true">$B$7*(E38-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.20758500919449</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.87491045641688</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <f aca="true">$B$7*(E39-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.26041891772631</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.05267562037959</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="true">$B$7*(E40-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.14337119468246</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.09916356878638</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="true">$B$7*(E41-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.94021755892328</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.69340393981787</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <f aca="true">$B$7*(E42-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.47664661648422</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.39544444333908</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="true">$B$7*(E43-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.25046491345152</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.16401731434014</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="true">$B$7*(E44-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.50571162838917</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.54452736113081</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <f aca="true">$B$7*(E45-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.50348407656892</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.51490071746803</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <f aca="true">$B$7*(E46-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.05082721034239</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.69842615511134</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <f aca="true">$B$7*(E47-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.10164728631271</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.51117954393746</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <f aca="true">$B$7*(E48-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.73785184018119</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.27928258878258</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <f aca="true">$B$7*(E49-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.91912929683714</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.65856816661784</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <f aca="true">$B$7*(E50-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.75781011296626</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.14623458861727</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <f aca="true">$B$7*(E51-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.99492018203755</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.6069402053371</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <f aca="true">$B$7*(E52-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.07878515693491</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.4812441720969</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <f aca="true">$B$7*(E53-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.60171493561382</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.40798042479476</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <f aca="true">$B$7*(E54-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.36907482225248</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.45874278976712</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <f aca="true">$B$7*(E55-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.29975649819439</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.12855289467304</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <f aca="true">$B$7*(E56-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.45854658338919</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.72345596342873</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <f aca="true">$B$7*(E57-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.9028927948089</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.15414550384465</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <f aca="true">$B$7*(E58-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.85187116833578</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.96414144167644</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <f aca="true">$B$7*(E59-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>2.84525450731598</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.5042261573473</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <f aca="true">$B$7*(E60-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.50513204268491</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.15484479878267</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <f aca="true">$B$7*(E61-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.41455469876142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.92169539054537</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <f aca="true">$B$7*(E62-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.41099022998629</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.11922704804877</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <f aca="true">$B$7*(E63-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.21148536700549</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.84016295033756</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <f aca="true">$B$7*(E64-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>2.7939594410396</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.02968319073813</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <f aca="true">$B$7*(E65-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.7074497937235</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.61889569721189</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <f aca="true">$B$7*(E66-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.52870483594774</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.62145100756836</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <f aca="true">$B$7*(E67-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.66364368659199</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.88699793848481</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <f aca="true">$B$7*(E68-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>10.569509964585</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.98130673639973</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <f aca="true">$B$7*(E69-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.2050144881764</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.51144639313472</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <f aca="true">$B$7*(E70-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.46050289726532</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.66517065572449</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <f aca="true">$B$7*(E71-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.40660944350293</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.24734962343343</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <f aca="true">$B$7*(E72-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.48607915558039</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.89633364806669</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <f aca="true">$B$7*(E73-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.30578583018649</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.42153390497239</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="true">$B$7*(E74-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.07914179145525</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.54634120124068</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <f aca="true">$B$7*(E75-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.72906305156347</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.01702537168321</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <f aca="true">$B$7*(E76-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.40828851869429</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.72104959649369</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="true">$B$7*(E77-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.74911875687444</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.13886794425455</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="true">$B$7*(E78-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.58613427738376</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.43188737534147</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <f aca="true">$B$7*(E79-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.83575793337579</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.29295236709095</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <f aca="true">$B$7*(E80-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.57176238518712</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.94194881169826</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <f aca="true">$B$7*(E81-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.12048117004503</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.29276159059298</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <f aca="true">$B$7*(E82-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.74170715478478</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.17684133046068</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <f aca="true">$B$7*(E83-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.87331264233067</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.41092388316367</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <f aca="true">$B$7*(E84-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.67261687824377</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.45314788065139</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <f aca="true">$B$7*(E85-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.75035823546341</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.33109806558556</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <f aca="true">$B$7*(E86-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.46451959873173</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.51888368512073</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <f aca="true">$B$7*(E87-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.55243877383781</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.09017540498473</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <f aca="true">$B$7*(E88-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.79254920318164</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.49018166711709</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <f aca="true">$B$7*(E89-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.06987444327501</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.37985369144564</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <f aca="true">$B$7*(E90-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.36560813075884</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.46773893700145</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <f aca="true">$B$7*(E91-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.98517955356011</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.98498105394613</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <f aca="true">$B$7*(E92-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.15969745443877</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.83465963719229</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <f aca="true">$B$7*(E93-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.44983249862533</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.83102092940584</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <f aca="true">$B$7*(E94-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.43300107333533</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.01208864298532</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <f aca="true">$B$7*(E95-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.14280988305283</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.99474579157254</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <f aca="true">$B$7*(E96-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.03715504460221</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.33935988513762</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <f aca="true">$B$7*(E97-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.02802077151223</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.08161898740423</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <f aca="true">$B$7*(E98-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.5469651282493</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.62704193683511</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <f aca="true">$B$7*(E99-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>5.78840400079603</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.13726185546588</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <f aca="true">$B$7*(E100-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.61967690559094</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.80462296766544</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <f aca="true">$B$7*(E101-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>7.4332492475123</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.00366150183688</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <f aca="true">$B$7*(E102-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>4.92291061267405</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.9192782196663</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <f aca="true">$B$7*(E103-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.52701424341455</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="1" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.77578385527154</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <f aca="true">$B$7*(E104-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>9.78991153439811</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/scatterplot_scratch.xlsx
+++ b/scatterplot_scratch.xlsx
@@ -21,12 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range of x values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approx regression eqn</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -35,10 +47,7 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t xml:space="preserve">min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
+    <t xml:space="preserve">error in regression</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
@@ -60,16 +69,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +94,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +150,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,7 +239,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -397,6 +426,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -417,6 +447,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -437,6 +468,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -457,6 +489,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -477,6 +510,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -497,6 +531,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -517,6 +552,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -537,6 +573,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -557,6 +594,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -577,6 +615,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -597,6 +636,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -615,6 +655,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -663,304 +704,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="497"/>
                 <c:pt idx="0">
-                  <c:v>79.9835152722301</c:v>
+                  <c:v>85.7920505080022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.0024874265443</c:v>
+                  <c:v>128.571113765977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.9408168353461</c:v>
+                  <c:v>69.4187427466003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.7987346148622</c:v>
+                  <c:v>88.5107138423494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.8416917696644</c:v>
+                  <c:v>65.3378299174808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.9546971525</c:v>
+                  <c:v>121.595602574063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.3790955458786</c:v>
+                  <c:v>76.5885804724739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.912345031283</c:v>
+                  <c:v>54.4663501858349</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.3229034728111</c:v>
+                  <c:v>125.377597618234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.653718174254</c:v>
+                  <c:v>40.1149593961546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.0764848167001</c:v>
+                  <c:v>87.9702722890627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.7532896017814</c:v>
+                  <c:v>46.2745348439658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.0972081816652</c:v>
+                  <c:v>95.5694758456358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.4795524748303</c:v>
+                  <c:v>122.284460970197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.1903880994035</c:v>
+                  <c:v>79.2820878954764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116.612955660283</c:v>
+                  <c:v>54.9635200811528</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108.239626764507</c:v>
+                  <c:v>87.4840307207366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.580089003682</c:v>
+                  <c:v>118.226444341824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128.106614285228</c:v>
+                  <c:v>125.075951540545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.7650452519615</c:v>
+                  <c:v>81.0821375993326</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>114.670085616972</c:v>
+                  <c:v>123.349458947191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>125.553431077076</c:v>
+                  <c:v>74.4888559806593</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66.5352845957449</c:v>
+                  <c:v>101.251229108242</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.9648690842067</c:v>
+                  <c:v>82.6505950082508</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.10519001682</c:v>
+                  <c:v>79.1719997869029</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.8441377925535</c:v>
+                  <c:v>85.1236633302078</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87.3334836289986</c:v>
+                  <c:v>112.709422856795</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.102227707873</c:v>
+                  <c:v>109.058598065534</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>64.580493623223</c:v>
+                  <c:v>57.3362270863218</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.0579456730299</c:v>
+                  <c:v>102.719862090403</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>123.742438817654</c:v>
+                  <c:v>114.248942562486</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67.5681875698361</c:v>
+                  <c:v>85.6137797875022</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55.5917165288099</c:v>
+                  <c:v>92.2999698213188</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>97.2449838904157</c:v>
+                  <c:v>72.0445609717856</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85.846851694812</c:v>
+                  <c:v>129.341721978793</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.8162084417983</c:v>
+                  <c:v>42.0452062812581</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.6290942290156</c:v>
+                  <c:v>94.9990033681175</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46.0867861634434</c:v>
+                  <c:v>94.9803347713959</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>92.1087471469544</c:v>
+                  <c:v>44.607417486061</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>59.2777826095062</c:v>
+                  <c:v>110.170767019542</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>89.5186248042775</c:v>
+                  <c:v>62.6684995793853</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>82.4599478962907</c:v>
+                  <c:v>83.0978220918393</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50.4553438140628</c:v>
+                  <c:v>75.4811392083298</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100.431414399118</c:v>
+                  <c:v>79.8867921988983</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>76.8306653253018</c:v>
+                  <c:v>43.1167710296052</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>82.5945548208613</c:v>
+                  <c:v>106.720479457453</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>101.573678249235</c:v>
+                  <c:v>98.8490246326132</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>128.867261133933</c:v>
+                  <c:v>91.1157511627942</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84.5113276907606</c:v>
+                  <c:v>40.926524715355</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47.0964874367125</c:v>
+                  <c:v>55.1376173407138</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68.6465977948376</c:v>
+                  <c:v>94.8063828476038</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.6114345006013</c:v>
+                  <c:v>70.8753631779953</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.0371811979899</c:v>
+                  <c:v>40.1072852109495</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61.6725460416103</c:v>
+                  <c:v>89.8175758984248</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90.9381675302979</c:v>
+                  <c:v>58.0129119658062</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>71.7994783647232</c:v>
+                  <c:v>47.587389538753</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113.520657686591</c:v>
+                  <c:v>115.073540134399</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>113.548505860926</c:v>
+                  <c:v>81.2010543542636</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>66.272459066389</c:v>
+                  <c:v>129.718600651876</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89.9583594548512</c:v>
+                  <c:v>113.393383773947</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>64.5690174839438</c:v>
+                  <c:v>76.3821927747952</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>47.7378431946272</c:v>
+                  <c:v>95.1044536974818</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>122.987035736667</c:v>
+                  <c:v>63.1435265605097</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>79.3166749610298</c:v>
+                  <c:v>120.924638954704</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>118.316954481274</c:v>
+                  <c:v>47.7064354933798</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>107.932508002841</c:v>
+                  <c:v>88.320517522775</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>113.727317171206</c:v>
+                  <c:v>113.146978331215</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>70.5937340384438</c:v>
+                  <c:v>43.5377598438295</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>119.84853638087</c:v>
+                  <c:v>114.431378169262</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>126.031594166364</c:v>
+                  <c:v>122.533154470637</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>56.5559546604834</c:v>
+                  <c:v>85.4240154321023</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>82.3271123017305</c:v>
+                  <c:v>83.0620422857553</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72.1005672354462</c:v>
+                  <c:v>73.4551697147638</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40.7291740839986</c:v>
+                  <c:v>81.9336737164601</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>70.3430568837692</c:v>
+                  <c:v>94.0065488926174</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>61.9404670115388</c:v>
+                  <c:v>48.0782848976427</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>110.610571982531</c:v>
+                  <c:v>43.0038340042894</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>109.781214827129</c:v>
+                  <c:v>88.6242750749909</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>129.938846158453</c:v>
+                  <c:v>122.702170701465</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>109.389728761588</c:v>
+                  <c:v>92.1013535921144</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>74.064996626374</c:v>
+                  <c:v>128.298241456579</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>116.723429132648</c:v>
+                  <c:v>101.693100192556</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>100.64941328302</c:v>
+                  <c:v>87.8235740310133</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>41.4072248908505</c:v>
+                  <c:v>68.9731806016244</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51.3544615549913</c:v>
+                  <c:v>80.8475239148333</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>104.538914207162</c:v>
+                  <c:v>42.9249520517342</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45.102154064077</c:v>
+                  <c:v>49.6606851912008</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>118.970824185096</c:v>
+                  <c:v>49.5522172277416</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55.4547938501809</c:v>
+                  <c:v>72.7936291906141</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>107.002867391618</c:v>
+                  <c:v>41.8466544950952</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>79.5279698165197</c:v>
+                  <c:v>96.064394977086</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>58.8036514989554</c:v>
+                  <c:v>73.1114651607912</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>60.9139589897528</c:v>
+                  <c:v>54.6075356272525</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>71.5714436298648</c:v>
+                  <c:v>58.5102736487541</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>112.769247291254</c:v>
+                  <c:v>101.588764961768</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>57.6670321206755</c:v>
+                  <c:v>63.400970427604</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>101.133495974897</c:v>
+                  <c:v>107.424177238042</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>93.245761459225</c:v>
+                  <c:v>129.26086625051</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>75.5409886935796</c:v>
+                  <c:v>129.046838835951</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>108.098722743687</c:v>
+                  <c:v>75.5851013201028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,315 +1013,315 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="497"/>
                 <c:pt idx="0">
-                  <c:v>434.597397048396</c:v>
+                  <c:v>-852.012724720932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>435.046161414635</c:v>
+                  <c:v>-1056.46182913044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384.282032320936</c:v>
+                  <c:v>-538.79410910181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>466.500249369003</c:v>
+                  <c:v>-981.38382284473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543.243377971056</c:v>
+                  <c:v>-746.271563037062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>722.785411920211</c:v>
+                  <c:v>-1003.77526612076</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>533.736248350752</c:v>
+                  <c:v>-611.441532977945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>641.92144541731</c:v>
+                  <c:v>-651.161113166646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512.235873662984</c:v>
+                  <c:v>-1154.67052087181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>708.564429930695</c:v>
+                  <c:v>-467.761289354725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>382.297249273632</c:v>
+                  <c:v>-953.831535113792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>388.713403223495</c:v>
+                  <c:v>-573.08837735383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>298.876802525905</c:v>
+                  <c:v>-676.957069793352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>355.9246492351</c:v>
+                  <c:v>-1341.45599098187</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>447.034944235741</c:v>
+                  <c:v>-527.195336532855</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>616.436770489293</c:v>
+                  <c:v>-497.915524379306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>625.890845645088</c:v>
+                  <c:v>-925.152399298925</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>686.635087569159</c:v>
+                  <c:v>-959.810189672309</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>691.410265497567</c:v>
+                  <c:v>-984.179943080989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>402.628485508788</c:v>
+                  <c:v>-644.050809795598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>635.30837126207</c:v>
+                  <c:v>-1101.3554557705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>696.46868954514</c:v>
+                  <c:v>-472.08942894041</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>396.703639348307</c:v>
+                  <c:v>-950.961709873521</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>453.370472347367</c:v>
+                  <c:v>-613.969578379709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>607.910401393193</c:v>
+                  <c:v>-888.958272879821</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>528.784582726171</c:v>
+                  <c:v>-1013.48074216706</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>494.492782216144</c:v>
+                  <c:v>-936.698937839729</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>567.661203452299</c:v>
+                  <c:v>-1082.19589942299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>403.227070137374</c:v>
+                  <c:v>-542.81943161843</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>277.654165248102</c:v>
+                  <c:v>-862.539323701629</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>672.888906463759</c:v>
+                  <c:v>-1021.05936363588</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>378.441041081326</c:v>
+                  <c:v>-995.193570277339</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>321.261206226179</c:v>
+                  <c:v>-1091.32175219556</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>546.689175249167</c:v>
+                  <c:v>-906.16627242463</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>502.907267939542</c:v>
+                  <c:v>-1288.58763225615</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>368.347344731889</c:v>
+                  <c:v>-406.490455140572</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>329.935746011067</c:v>
+                  <c:v>-853.058384964187</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>277.740557575364</c:v>
+                  <c:v>-1054.49216172262</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>539.010888362697</c:v>
+                  <c:v>-615.343478822665</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>349.12063823443</c:v>
+                  <c:v>-1259.64862225733</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>498.551482643551</c:v>
+                  <c:v>-698.414370411234</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>493.615128438387</c:v>
+                  <c:v>-556.251366755834</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>292.301294050941</c:v>
+                  <c:v>-744.043455766087</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>535.744175216429</c:v>
+                  <c:v>-609.358820666836</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>428.370010480223</c:v>
+                  <c:v>-320.102552615053</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>454.609817166634</c:v>
+                  <c:v>-769.586090571651</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>570.719372996563</c:v>
+                  <c:v>-1157.53360426725</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>727.903345180461</c:v>
+                  <c:v>-618.818524821002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>460.052759899797</c:v>
+                  <c:v>-538.047119290388</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>279.163132725321</c:v>
+                  <c:v>-321.850900217798</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>412.885448387299</c:v>
+                  <c:v>-762.108856180356</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>235.109501018806</c:v>
+                  <c:v>-894.515659520021</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>363.56603694577</c:v>
+                  <c:v>-236.374193120159</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>348.877719816436</c:v>
+                  <c:v>-680.833931648226</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>530.86700108057</c:v>
+                  <c:v>-368.893486101128</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>421.36888140236</c:v>
+                  <c:v>-658.542467493928</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>626.913081884352</c:v>
+                  <c:v>-930.839022666116</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>633.613616709568</c:v>
+                  <c:v>-945.769977797944</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>402.955283121482</c:v>
+                  <c:v>-1386.36517136014</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>497.229703735194</c:v>
+                  <c:v>-1059.83859571998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>369.219445123905</c:v>
+                  <c:v>-756.301623372808</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>289.52834895433</c:v>
+                  <c:v>-763.744587911822</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>648.556478520983</c:v>
+                  <c:v>-594.261509672361</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>446.120276042076</c:v>
+                  <c:v>-1183.81285187649</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>667.889231144904</c:v>
+                  <c:v>-441.857480102772</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>572.562216745042</c:v>
+                  <c:v>-812.879630881578</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>605.31931753476</c:v>
+                  <c:v>-916.162626006339</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>411.948109161311</c:v>
+                  <c:v>-520.338604401527</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>630.641412820683</c:v>
+                  <c:v>-1004.46210852389</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>682.546554332821</c:v>
+                  <c:v>-1109.30906786304</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>363.002079816556</c:v>
+                  <c:v>-1024.38494080735</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>478.785003361624</c:v>
+                  <c:v>-812.194206314528</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>406.161808769958</c:v>
+                  <c:v>-612.013674825755</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>240.75843676428</c:v>
+                  <c:v>-624.334769498327</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>385.109872841375</c:v>
+                  <c:v>-835.371898008841</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>346.577590970373</c:v>
+                  <c:v>-469.005213999186</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>594.113363497602</c:v>
+                  <c:v>-537.381958288958</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>627.772700677042</c:v>
+                  <c:v>-1008.13143650317</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>736.785417241461</c:v>
+                  <c:v>-1179.93775374456</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>616.72055961255</c:v>
+                  <c:v>-766.655473551797</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>447.734926668532</c:v>
+                  <c:v>-1283.62466354187</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>662.231706004269</c:v>
+                  <c:v>-1026.43705883676</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>555.218082315907</c:v>
+                  <c:v>-813.808533360346</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>248.286048239869</c:v>
+                  <c:v>-799.283498541982</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>332.964657614908</c:v>
+                  <c:v>-616.806580180355</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>554.019442132004</c:v>
+                  <c:v>-561.564831377487</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>269.964390657881</c:v>
+                  <c:v>-340.040823031381</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>661.327769204324</c:v>
+                  <c:v>-656.429885811889</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>312.889497984039</c:v>
+                  <c:v>-681.686348386074</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>584.678263002825</c:v>
+                  <c:v>-211.849416591201</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>442.354702616232</c:v>
+                  <c:v>-756.199947169585</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>376.539863922904</c:v>
+                  <c:v>-890.688452203803</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>386.929140093157</c:v>
+                  <c:v>-373.579494397117</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>394.362992792554</c:v>
+                  <c:v>-535.650032320111</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>651.504217110099</c:v>
+                  <c:v>-734.314318667437</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>321.898189818062</c:v>
+                  <c:v>-340.945719006711</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>541.470805786895</c:v>
+                  <c:v>-858.059660052325</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>532.512915355933</c:v>
+                  <c:v>-1254.88657918462</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>428.225412459941</c:v>
+                  <c:v>-1142.12401720175</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>625.803313485903</c:v>
+                  <c:v>-894.859667618756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67344228"/>
-        <c:axId val="98062941"/>
+        <c:axId val="16111127"/>
+        <c:axId val="70424971"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67344228"/>
+        <c:axId val="16111127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1336,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1317,12 +1358,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98062941"/>
+        <c:crossAx val="70424971"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98062941"/>
+        <c:axId val="70424971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1378,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1359,7 +1400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67344228"/>
+        <c:crossAx val="16111127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1407,7 +1448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1460,6 +1501,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1480,304 +1522,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>9.03736856411756</c:v>
+                  <c:v>5.99816551931315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.40407645793662</c:v>
+                  <c:v>6.49101109157527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.66116478631136</c:v>
+                  <c:v>8.25883038216094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.21018905914273</c:v>
+                  <c:v>8.96103616801092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16627748294901</c:v>
+                  <c:v>9.60207411064712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6473012689861</c:v>
+                  <c:v>8.11074550141964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.67533351189451</c:v>
+                  <c:v>9.44098822729958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.27430037550207</c:v>
+                  <c:v>8.43408503717784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.72738246889435</c:v>
+                  <c:v>5.9697513965608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2222891724136</c:v>
+                  <c:v>6.54612311186618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.85511389932163</c:v>
+                  <c:v>8.40366897429379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.67768062996006</c:v>
+                  <c:v>5.77659175941516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.78465119801036</c:v>
+                  <c:v>8.58374978415594</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.81639453674467</c:v>
+                  <c:v>5.67709969122844</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.14189339313556</c:v>
+                  <c:v>5.64901062078039</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.57251732214987</c:v>
+                  <c:v>6.54747502923864</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.48381207008325</c:v>
+                  <c:v>8.04844790009648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.90711296522967</c:v>
+                  <c:v>7.29885303112443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.96744383966928</c:v>
+                  <c:v>7.85360444304358</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.72314234246086</c:v>
+                  <c:v>6.96653059132462</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.71579311892463</c:v>
+                  <c:v>6.62436770466331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.456296055369</c:v>
+                  <c:v>8.1214865160747</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.39357596300241</c:v>
+                  <c:v>9.9655985578894</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.75776879453246</c:v>
+                  <c:v>8.03149831339461</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.20339197797467</c:v>
+                  <c:v>5.46004438306665</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.42794772649689</c:v>
+                  <c:v>8.12800719672253</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.79647053366411</c:v>
+                  <c:v>7.84655906466</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.02932140422854</c:v>
+                  <c:v>7.69282711733061</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.90071593794277</c:v>
+                  <c:v>7.70566347775301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.00893137758635</c:v>
+                  <c:v>8.86345144365461</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.67018074094582</c:v>
+                  <c:v>8.78574544513145</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.53026963969445</c:v>
+                  <c:v>5.09771045007781</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.88038652214873</c:v>
+                  <c:v>8.21623727706429</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.77787866499954</c:v>
+                  <c:v>5.7931132886731</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.87491045641688</c:v>
+                  <c:v>6.63082126084787</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.05267562037959</c:v>
+                  <c:v>6.10168663313847</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.09916356878638</c:v>
+                  <c:v>6.08912889863063</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.69340393981787</c:v>
+                  <c:v>5.86899419211565</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.39544444333908</c:v>
+                  <c:v>5.00646941013816</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.16401731434014</c:v>
+                  <c:v>6.84010203234596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.54452736113081</c:v>
+                  <c:v>7.9269644155429</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.51490071746803</c:v>
+                  <c:v>6.39306791216563</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.69842615511134</c:v>
+                  <c:v>6.48847938371712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.51117954393746</c:v>
+                  <c:v>6.04182017930393</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.27928258878258</c:v>
+                  <c:v>6.02029206361619</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.65856816661784</c:v>
+                  <c:v>8.00797447869435</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.14623458861727</c:v>
+                  <c:v>9.28286331344135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.6069402053371</c:v>
+                  <c:v>6.60191447346362</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.4812441720969</c:v>
+                  <c:v>6.46476906461783</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.40798042479476</c:v>
+                  <c:v>9.70155183445761</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.45874278976712</c:v>
+                  <c:v>8.15081118604303</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.12855289467304</c:v>
+                  <c:v>9.23541008114333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.72345596342873</c:v>
+                  <c:v>6.73121223950299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.15414550384465</c:v>
+                  <c:v>6.83702267862807</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.96414144167644</c:v>
+                  <c:v>6.15562022948796</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.5042261573473</c:v>
+                  <c:v>8.52276125850033</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.15484479878267</c:v>
+                  <c:v>8.37784726149263</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.92169539054537</c:v>
+                  <c:v>6.86899383629675</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.11922704804877</c:v>
+                  <c:v>6.92563648949384</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.84016295033756</c:v>
+                  <c:v>9.26596937076455</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.02968319073813</c:v>
+                  <c:v>7.35189260686514</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.61889569721189</c:v>
+                  <c:v>8.20136184910608</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.62145100756836</c:v>
+                  <c:v>6.11671188254981</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.88699793848481</c:v>
+                  <c:v>5.3299488298063</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.98130673639973</c:v>
+                  <c:v>7.89597426646063</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.51144639313472</c:v>
+                  <c:v>6.57693210115262</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.66517065572449</c:v>
+                  <c:v>5.75970731772925</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.24734962343343</c:v>
+                  <c:v>8.88129537951028</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.89633364806669</c:v>
+                  <c:v>8.22860719011213</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.42153390497239</c:v>
+                  <c:v>9.20084622938327</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.54634120124068</c:v>
+                  <c:v>5.41666278740488</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.01702537168321</c:v>
+                  <c:v>5.74411368231138</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.72104959649369</c:v>
+                  <c:v>6.13614636274074</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.13886794425455</c:v>
+                  <c:v>6.56832340613048</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.43188737534147</c:v>
+                  <c:v>5.86284646685838</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.29295236709095</c:v>
+                  <c:v>9.39442824846435</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.94194881169826</c:v>
+                  <c:v>6.17036179618962</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.29276159059298</c:v>
+                  <c:v>7.56408019519756</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.17684133046068</c:v>
+                  <c:v>6.73221054394997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.41092388316367</c:v>
+                  <c:v>9.77950789443865</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.45314788065139</c:v>
+                  <c:v>5.18433639005857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.33109806558556</c:v>
+                  <c:v>5.45263419313229</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.51888368512073</c:v>
+                  <c:v>9.23795003127612</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.09017540498473</c:v>
+                  <c:v>9.29122461925692</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.49018166711709</c:v>
+                  <c:v>9.03783255205518</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.37985369144564</c:v>
+                  <c:v>9.55481129181286</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.46773893700145</c:v>
+                  <c:v>9.90896109320054</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.98498105394613</c:v>
+                  <c:v>7.40148961874733</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.83465963719229</c:v>
+                  <c:v>7.03528418439166</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.83102092940584</c:v>
+                  <c:v>5.00754393044011</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.01208864298532</c:v>
+                  <c:v>7.55117469052194</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.99474579157254</c:v>
+                  <c:v>6.39707764694316</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.33935988513762</c:v>
+                  <c:v>5.91489640530943</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.08161898740423</c:v>
+                  <c:v>6.1083665929003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.62704193683511</c:v>
+                  <c:v>6.61779129092672</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.13726185546588</c:v>
+                  <c:v>7.64061967307034</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.80462296766544</c:v>
+                  <c:v>7.78014849296463</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.00366150183688</c:v>
+                  <c:v>6.33162861654418</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.9192782196663</c:v>
+                  <c:v>5.3537942114704</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.77578385527154</c:v>
+                  <c:v>6.8921068094704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,321 +1831,321 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>5.64387432028078</c:v>
+                  <c:v>5.97205269553875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.29139908174171</c:v>
+                  <c:v>4.72766703664104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.92811051090638</c:v>
+                  <c:v>4.69774962079081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.85766732933208</c:v>
+                  <c:v>5.50617392816419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.10660496100351</c:v>
+                  <c:v>8.51774929091087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.57468166379097</c:v>
+                  <c:v>3.29083334322433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.24802634374522</c:v>
+                  <c:v>6.26852495401439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.69003453590269</c:v>
+                  <c:v>5.69635175150128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.76075901781329</c:v>
+                  <c:v>7.12571538727624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.37858620141276</c:v>
+                  <c:v>4.51347119504617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.69114602100417</c:v>
+                  <c:v>5.75008689572761</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.59550186165088</c:v>
+                  <c:v>6.25199858801692</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.70460392195588</c:v>
+                  <c:v>4.5698125455895</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4962682711724</c:v>
+                  <c:v>6.79649580441423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2723927253079</c:v>
+                  <c:v>7.13552981892359</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.42149331731317</c:v>
+                  <c:v>5.86532470544224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.98732407041911</c:v>
+                  <c:v>3.07007963982558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.06560114734565</c:v>
+                  <c:v>4.20472465661623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9323123434024</c:v>
+                  <c:v>3.08774060816616</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.70050992793323</c:v>
+                  <c:v>3.49005221585056</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.73889050878793</c:v>
+                  <c:v>3.31247403872426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.15126917982902</c:v>
+                  <c:v>4.71105008759221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.18040239146834</c:v>
+                  <c:v>8.96702556575528</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6289665430412</c:v>
+                  <c:v>5.03532570040101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.87483073829806</c:v>
+                  <c:v>7.9342354946033</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.72975958030236</c:v>
+                  <c:v>3.2590270318192</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.27481302302448</c:v>
+                  <c:v>3.62193916151602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.53582797426629</c:v>
+                  <c:v>2.83823591891675</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.64378787277627</c:v>
+                  <c:v>3.75007842580521</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.26714753584528</c:v>
+                  <c:v>6.57536444783903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.00509862594045</c:v>
+                  <c:v>5.36499958081069</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.77517819272246</c:v>
+                  <c:v>9.83252258666941</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.5073208200441</c:v>
+                  <c:v>5.27575176067283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.20758500919449</c:v>
+                  <c:v>7.55777940311706</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.26041891772631</c:v>
+                  <c:v>4.5347304676115</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.14337119468246</c:v>
+                  <c:v>5.24171978225387</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.94021755892328</c:v>
+                  <c:v>6.81705394586582</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.47664661648422</c:v>
+                  <c:v>5.53727148807499</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.25046491345152</c:v>
+                  <c:v>10.3435578494417</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.50571162838917</c:v>
+                  <c:v>3.32648653177071</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.50348407656892</c:v>
+                  <c:v>3.7111315147285</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.05082721034239</c:v>
+                  <c:v>5.54303456345505</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.10164728631271</c:v>
+                  <c:v>4.19290865798772</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.73785184018119</c:v>
+                  <c:v>5.12605402117212</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.91912929683714</c:v>
+                  <c:v>6.44038395946876</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.75781011296626</c:v>
+                  <c:v>4.56021447698469</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.99492018203755</c:v>
+                  <c:v>8.0647277774396</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.07878515693491</c:v>
+                  <c:v>3.96085166464621</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.60171493561382</c:v>
+                  <c:v>5.29540439436425</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.36907482225248</c:v>
+                  <c:v>7.40708832926262</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.29975649819439</c:v>
+                  <c:v>4.57127991909075</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.45854658338919</c:v>
+                  <c:v>7.74771323253932</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.9028927948089</c:v>
+                  <c:v>5.23549916925906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.85187116833578</c:v>
+                  <c:v>4.25561983101804</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.84525450731598</c:v>
+                  <c:v>5.53123595692508</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.50513204268491</c:v>
+                  <c:v>4.17840238438402</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.41455469876142</c:v>
+                  <c:v>3.55840497809339</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.41099022998629</c:v>
+                  <c:v>3.51187779206573</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.21148536700549</c:v>
+                  <c:v>4.70390286586051</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.7939594410396</c:v>
+                  <c:v>6.57818412341489</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7074497937235</c:v>
+                  <c:v>4.68647100175103</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.52870483594774</c:v>
+                  <c:v>4.60893706747207</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.66364368659199</c:v>
+                  <c:v>6.40172756609839</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.569509964585</c:v>
+                  <c:v>7.58066041141565</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.2050144881764</c:v>
+                  <c:v>4.88774616317461</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.46050289726532</c:v>
+                  <c:v>4.20315172644418</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.40660944350293</c:v>
+                  <c:v>7.92825870039484</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.48607915558039</c:v>
+                  <c:v>4.73219386050045</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.30578583018649</c:v>
+                  <c:v>4.95710052918971</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.07914179145525</c:v>
+                  <c:v>6.70167770025292</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.72906305156347</c:v>
+                  <c:v>7.25141063956951</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.40828851869429</c:v>
+                  <c:v>7.55670761051626</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.74911875687444</c:v>
+                  <c:v>6.33275476108064</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.58613427738376</c:v>
+                  <c:v>5.70589293649714</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.83575793337579</c:v>
+                  <c:v>5.68209679836117</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.57176238518712</c:v>
+                  <c:v>7.31482711973041</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.12048117004503</c:v>
+                  <c:v>5.66327879403242</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.74170715478478</c:v>
+                  <c:v>4.94486453761313</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.87331264233067</c:v>
+                  <c:v>3.92933391610117</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.67261687824377</c:v>
+                  <c:v>8.0343780748956</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.75035823546341</c:v>
+                  <c:v>9.99483071240112</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.46451959873173</c:v>
+                  <c:v>8.03618345796107</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.55243877383781</c:v>
+                  <c:v>6.90298493284723</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.79254920318164</c:v>
+                  <c:v>7.68088475707776</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.06987444327501</c:v>
+                  <c:v>6.96153078161722</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.36560813075884</c:v>
+                  <c:v>8.76295262673809</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.98517955356011</c:v>
+                  <c:v>10.1828657998925</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.15969745443877</c:v>
+                  <c:v>3.47385954933432</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.44983249862533</c:v>
+                  <c:v>3.66733516304825</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.43300107333533</c:v>
+                  <c:v>9.34019458339711</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.14280988305283</c:v>
+                  <c:v>2.74867539180246</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.03715504460221</c:v>
+                  <c:v>3.94885362674718</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.02802077151223</c:v>
+                  <c:v>6.00241811486314</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.5469651282493</c:v>
+                  <c:v>4.66259833905199</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.78840400079603</c:v>
+                  <c:v>4.35307322305927</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.61967690559094</c:v>
+                  <c:v>3.75517314209953</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.4332492475123</c:v>
+                  <c:v>3.24758650761482</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.92291061267405</c:v>
+                  <c:v>4.14330322629345</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.52701424341455</c:v>
+                  <c:v>8.53146504037288</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.78991153439811</c:v>
+                  <c:v>4.44925791498757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2375471"/>
-        <c:axId val="24921483"/>
+        <c:axId val="20696852"/>
+        <c:axId val="18294565"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2375471"/>
+        <c:axId val="20696852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2125,12 +2167,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24921483"/>
+        <c:crossAx val="18294565"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24921483"/>
+        <c:axId val="18294565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,7 +2187,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2167,9 +2209,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2375471"/>
+        <c:crossAx val="20696852"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2226,9 +2268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:colOff>414000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2236,8 +2278,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5221080" y="180000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5228640" y="180000"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2261,9 +2303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>565560</xdr:colOff>
+      <xdr:colOff>565200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2271,8 +2313,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6185160" y="296640"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6194160" y="296640"/>
+        <a:ext cx="5767920" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2290,1061 +2332,1076 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G104"/>
+  <dimension ref="A2:G104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>89.8397748751878</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>79.9835152722301</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D5+2*$B$14*RAND()-$B$14)</f>
-        <v>434.597397048396</v>
+      <c r="D5" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>85.7920505080022</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D5+$B$16*(2*RAND()-1))</f>
+        <v>-852.012724720932</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>76.0024874265443</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D6+2*$B$14*RAND()-$B$14)</f>
-        <v>435.046161414635</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="D6" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>128.571113765977</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D6+$B$16*(2*RAND()-1))</f>
+        <v>-1056.46182913044</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="D7" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>69.4187427466003</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D7+$B$16*(2*RAND()-1))</f>
+        <v>-538.79410910181</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>88.5107138423494</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D8+$B$16*(2*RAND()-1))</f>
+        <v>-981.38382284473</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>65.3378299174808</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D9+$B$16*(2*RAND()-1))</f>
+        <v>-746.271563037062</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>121.595602574063</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D10+$B$16*(2*RAND()-1))</f>
+        <v>-1003.77526612076</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>76.5885804724739</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D11+$B$16*(2*RAND()-1))</f>
+        <v>-611.441532977945</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>59.9408168353461</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D7+2*$B$14*RAND()-$B$14)</f>
-        <v>384.282032320936</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>76.7987346148622</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D8+2*$B$14*RAND()-$B$14)</f>
-        <v>466.500249369003</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>95.8416917696644</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D9+2*$B$14*RAND()-$B$14)</f>
-        <v>543.243377971056</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>128.9546971525</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D10+2*$B$14*RAND()-$B$14)</f>
-        <v>722.785411920211</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>90.3790955458786</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D11+2*$B$14*RAND()-$B$14)</f>
-        <v>533.736248350752</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>113.912345031283</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D12+2*$B$14*RAND()-$B$14)</f>
-        <v>641.92144541731</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="D12" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>54.4663501858349</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D12+$B$16*(2*RAND()-1))</f>
+        <v>-651.161113166646</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>89.3229034728111</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D13+2*$B$14*RAND()-$B$14)</f>
-        <v>512.235873662984</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>125.377597618234</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D13+$B$16*(2*RAND()-1))</f>
+        <v>-1154.67052087181</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>126.653718174254</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D14+2*$B$14*RAND()-$B$14)</f>
-        <v>708.564429930695</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="D14" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>40.1149593961546</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D14+$B$16*(2*RAND()-1))</f>
+        <v>-467.761289354725</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>60.0764848167001</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D15+2*$B$14*RAND()-$B$14)</f>
-        <v>382.297249273632</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>87.9702722890627</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D15+$B$16*(2*RAND()-1))</f>
+        <v>-953.831535113792</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>59.7532896017814</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D16+2*$B$14*RAND()-$B$14)</f>
-        <v>388.713403223495</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>46.2745348439658</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D16+$B$16*(2*RAND()-1))</f>
+        <v>-573.08837735383</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>49.0972081816652</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D17+2*$B$14*RAND()-$B$14)</f>
-        <v>298.876802525905</v>
+      <c r="D17" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>95.5694758456358</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D17+$B$16*(2*RAND()-1))</f>
+        <v>-676.957069793352</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>62.4795524748303</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D18+2*$B$14*RAND()-$B$14)</f>
-        <v>355.9246492351</v>
+      <c r="D18" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>122.284460970197</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D18+$B$16*(2*RAND()-1))</f>
+        <v>-1341.45599098187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>77.1903880994035</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D19+2*$B$14*RAND()-$B$14)</f>
-        <v>447.034944235741</v>
+      <c r="D19" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>79.2820878954764</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D19+$B$16*(2*RAND()-1))</f>
+        <v>-527.195336532855</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>116.612955660283</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D20+2*$B$14*RAND()-$B$14)</f>
-        <v>616.436770489293</v>
+      <c r="D20" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>54.9635200811528</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D20+$B$16*(2*RAND()-1))</f>
+        <v>-497.915524379306</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>108.239626764507</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D21+2*$B$14*RAND()-$B$14)</f>
-        <v>625.890845645088</v>
+      <c r="D21" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>87.4840307207366</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D21+$B$16*(2*RAND()-1))</f>
+        <v>-925.152399298925</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>122.580089003682</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D22+2*$B$14*RAND()-$B$14)</f>
-        <v>686.635087569159</v>
+      <c r="D22" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>118.226444341824</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D22+$B$16*(2*RAND()-1))</f>
+        <v>-959.810189672309</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>128.106614285228</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D23+2*$B$14*RAND()-$B$14)</f>
-        <v>691.410265497567</v>
+      <c r="D23" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>125.075951540545</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D23+$B$16*(2*RAND()-1))</f>
+        <v>-984.179943080989</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>66.7650452519615</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D24+2*$B$14*RAND()-$B$14)</f>
-        <v>402.628485508788</v>
+      <c r="D24" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>81.0821375993326</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D24+$B$16*(2*RAND()-1))</f>
+        <v>-644.050809795598</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>114.670085616972</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D25+2*$B$14*RAND()-$B$14)</f>
-        <v>635.30837126207</v>
+      <c r="D25" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>123.349458947191</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D25+$B$16*(2*RAND()-1))</f>
+        <v>-1101.3554557705</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>125.553431077076</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D26+2*$B$14*RAND()-$B$14)</f>
-        <v>696.46868954514</v>
+      <c r="D26" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>74.4888559806593</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D26+$B$16*(2*RAND()-1))</f>
+        <v>-472.08942894041</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>66.5352845957449</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D27+2*$B$14*RAND()-$B$14)</f>
-        <v>396.703639348307</v>
+      <c r="D27" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>101.251229108242</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D27+$B$16*(2*RAND()-1))</f>
+        <v>-950.961709873521</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>75.9648690842067</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D28+2*$B$14*RAND()-$B$14)</f>
-        <v>453.370472347367</v>
+      <c r="D28" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>82.6505950082508</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D28+$B$16*(2*RAND()-1))</f>
+        <v>-613.969578379709</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>110.10519001682</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D29+2*$B$14*RAND()-$B$14)</f>
-        <v>607.910401393193</v>
+      <c r="D29" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>79.1719997869029</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D29+$B$16*(2*RAND()-1))</f>
+        <v>-888.958272879821</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>93.8441377925535</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D30+2*$B$14*RAND()-$B$14)</f>
-        <v>528.784582726171</v>
+      <c r="D30" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>85.1236633302078</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D30+$B$16*(2*RAND()-1))</f>
+        <v>-1013.48074216706</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>87.3334836289986</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D31+2*$B$14*RAND()-$B$14)</f>
-        <v>494.492782216144</v>
+      <c r="D31" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>112.709422856795</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D31+$B$16*(2*RAND()-1))</f>
+        <v>-936.698937839729</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>100.102227707873</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D32+2*$B$14*RAND()-$B$14)</f>
-        <v>567.661203452299</v>
+      <c r="D32" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>109.058598065534</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D32+$B$16*(2*RAND()-1))</f>
+        <v>-1082.19589942299</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>64.580493623223</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D33+2*$B$14*RAND()-$B$14)</f>
-        <v>403.227070137374</v>
+      <c r="D33" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>57.3362270863218</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D33+$B$16*(2*RAND()-1))</f>
+        <v>-542.81943161843</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>46.0579456730299</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D34+2*$B$14*RAND()-$B$14)</f>
-        <v>277.654165248102</v>
+      <c r="D34" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>102.719862090403</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D34+$B$16*(2*RAND()-1))</f>
+        <v>-862.539323701629</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>123.742438817654</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D35+2*$B$14*RAND()-$B$14)</f>
-        <v>672.888906463759</v>
+      <c r="D35" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>114.248942562486</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D35+$B$16*(2*RAND()-1))</f>
+        <v>-1021.05936363588</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>67.5681875698361</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D36+2*$B$14*RAND()-$B$14)</f>
-        <v>378.441041081326</v>
+      <c r="D36" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>85.6137797875022</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D36+$B$16*(2*RAND()-1))</f>
+        <v>-995.193570277339</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>55.5917165288099</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D37+2*$B$14*RAND()-$B$14)</f>
-        <v>321.261206226179</v>
+      <c r="D37" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>92.2999698213188</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D37+$B$16*(2*RAND()-1))</f>
+        <v>-1091.32175219556</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>97.2449838904157</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D38+2*$B$14*RAND()-$B$14)</f>
-        <v>546.689175249167</v>
+      <c r="D38" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>72.0445609717856</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D38+$B$16*(2*RAND()-1))</f>
+        <v>-906.16627242463</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>85.846851694812</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D39+2*$B$14*RAND()-$B$14)</f>
-        <v>502.907267939542</v>
+      <c r="D39" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>129.341721978793</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D39+$B$16*(2*RAND()-1))</f>
+        <v>-1288.58763225615</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>56.8162084417983</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D40+2*$B$14*RAND()-$B$14)</f>
-        <v>368.347344731889</v>
+      <c r="D40" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>42.0452062812581</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D40+$B$16*(2*RAND()-1))</f>
+        <v>-406.490455140572</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>48.6290942290156</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D41+2*$B$14*RAND()-$B$14)</f>
-        <v>329.935746011067</v>
+      <c r="D41" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>94.9990033681175</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D41+$B$16*(2*RAND()-1))</f>
+        <v>-853.058384964187</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>46.0867861634434</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D42+2*$B$14*RAND()-$B$14)</f>
-        <v>277.740557575364</v>
+      <c r="D42" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>94.9803347713959</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D42+$B$16*(2*RAND()-1))</f>
+        <v>-1054.49216172262</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>92.1087471469544</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D43+2*$B$14*RAND()-$B$14)</f>
-        <v>539.010888362697</v>
+      <c r="D43" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>44.607417486061</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D43+$B$16*(2*RAND()-1))</f>
+        <v>-615.343478822665</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>59.2777826095062</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D44+2*$B$14*RAND()-$B$14)</f>
-        <v>349.12063823443</v>
+      <c r="D44" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>110.170767019542</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D44+$B$16*(2*RAND()-1))</f>
+        <v>-1259.64862225733</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>89.5186248042775</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D45+2*$B$14*RAND()-$B$14)</f>
-        <v>498.551482643551</v>
+      <c r="D45" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>62.6684995793853</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D45+$B$16*(2*RAND()-1))</f>
+        <v>-698.414370411234</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>82.4599478962907</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D46+2*$B$14*RAND()-$B$14)</f>
-        <v>493.615128438387</v>
+      <c r="D46" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>83.0978220918393</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D46+$B$16*(2*RAND()-1))</f>
+        <v>-556.251366755834</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>50.4553438140628</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D47+2*$B$14*RAND()-$B$14)</f>
-        <v>292.301294050941</v>
+      <c r="D47" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>75.4811392083298</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D47+$B$16*(2*RAND()-1))</f>
+        <v>-744.043455766087</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>100.431414399118</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D48+2*$B$14*RAND()-$B$14)</f>
-        <v>535.744175216429</v>
+      <c r="D48" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>79.8867921988983</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D48+$B$16*(2*RAND()-1))</f>
+        <v>-609.358820666836</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>76.8306653253018</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D49+2*$B$14*RAND()-$B$14)</f>
-        <v>428.370010480223</v>
+      <c r="D49" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>43.1167710296052</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D49+$B$16*(2*RAND()-1))</f>
+        <v>-320.102552615053</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>82.5945548208613</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D50+2*$B$14*RAND()-$B$14)</f>
-        <v>454.609817166634</v>
+      <c r="D50" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>106.720479457453</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D50+$B$16*(2*RAND()-1))</f>
+        <v>-769.586090571651</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>101.573678249235</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D51+2*$B$14*RAND()-$B$14)</f>
-        <v>570.719372996563</v>
+      <c r="D51" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>98.8490246326132</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D51+$B$16*(2*RAND()-1))</f>
+        <v>-1157.53360426725</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>128.867261133933</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D52+2*$B$14*RAND()-$B$14)</f>
-        <v>727.903345180461</v>
+      <c r="D52" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>91.1157511627942</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D52+$B$16*(2*RAND()-1))</f>
+        <v>-618.818524821002</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>84.5113276907606</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D53+2*$B$14*RAND()-$B$14)</f>
-        <v>460.052759899797</v>
+      <c r="D53" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>40.926524715355</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D53+$B$16*(2*RAND()-1))</f>
+        <v>-538.047119290388</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>47.0964874367125</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D54+2*$B$14*RAND()-$B$14)</f>
-        <v>279.163132725321</v>
+      <c r="D54" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>55.1376173407138</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D54+$B$16*(2*RAND()-1))</f>
+        <v>-321.850900217798</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>68.6465977948376</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D55+2*$B$14*RAND()-$B$14)</f>
-        <v>412.885448387299</v>
+      <c r="D55" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>94.8063828476038</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D55+$B$16*(2*RAND()-1))</f>
+        <v>-762.108856180356</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>40.6114345006013</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D56+2*$B$14*RAND()-$B$14)</f>
-        <v>235.109501018806</v>
+      <c r="D56" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>70.8753631779953</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D56+$B$16*(2*RAND()-1))</f>
+        <v>-894.515659520021</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>61.0371811979899</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D57+2*$B$14*RAND()-$B$14)</f>
-        <v>363.56603694577</v>
+      <c r="D57" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>40.1072852109495</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D57+$B$16*(2*RAND()-1))</f>
+        <v>-236.374193120159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>61.6725460416103</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D58+2*$B$14*RAND()-$B$14)</f>
-        <v>348.877719816436</v>
+      <c r="D58" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>89.8175758984248</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D58+$B$16*(2*RAND()-1))</f>
+        <v>-680.833931648226</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>90.9381675302979</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D59+2*$B$14*RAND()-$B$14)</f>
-        <v>530.86700108057</v>
+      <c r="D59" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>58.0129119658062</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D59+$B$16*(2*RAND()-1))</f>
+        <v>-368.893486101128</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>71.7994783647232</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D60+2*$B$14*RAND()-$B$14)</f>
-        <v>421.36888140236</v>
+      <c r="D60" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>47.587389538753</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D60+$B$16*(2*RAND()-1))</f>
+        <v>-658.542467493928</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>113.520657686591</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D61+2*$B$14*RAND()-$B$14)</f>
-        <v>626.913081884352</v>
+      <c r="D61" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>115.073540134399</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D61+$B$16*(2*RAND()-1))</f>
+        <v>-930.839022666116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>113.548505860926</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D62+2*$B$14*RAND()-$B$14)</f>
-        <v>633.613616709568</v>
+      <c r="D62" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>81.2010543542636</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D62+$B$16*(2*RAND()-1))</f>
+        <v>-945.769977797944</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>66.272459066389</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D63+2*$B$14*RAND()-$B$14)</f>
-        <v>402.955283121482</v>
+      <c r="D63" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>129.718600651876</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D63+$B$16*(2*RAND()-1))</f>
+        <v>-1386.36517136014</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>89.9583594548512</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D64+2*$B$14*RAND()-$B$14)</f>
-        <v>497.229703735194</v>
+      <c r="D64" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>113.393383773947</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D64+$B$16*(2*RAND()-1))</f>
+        <v>-1059.83859571998</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>64.5690174839438</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D65+2*$B$14*RAND()-$B$14)</f>
-        <v>369.219445123905</v>
+      <c r="D65" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>76.3821927747952</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D65+$B$16*(2*RAND()-1))</f>
+        <v>-756.301623372808</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>47.7378431946272</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D66+2*$B$14*RAND()-$B$14)</f>
-        <v>289.52834895433</v>
+      <c r="D66" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>95.1044536974818</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D66+$B$16*(2*RAND()-1))</f>
+        <v>-763.744587911822</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>122.987035736667</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D67+2*$B$14*RAND()-$B$14)</f>
-        <v>648.556478520983</v>
+      <c r="D67" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>63.1435265605097</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D67+$B$16*(2*RAND()-1))</f>
+        <v>-594.261509672361</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>79.3166749610298</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D68+2*$B$14*RAND()-$B$14)</f>
-        <v>446.120276042076</v>
+      <c r="D68" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>120.924638954704</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D68+$B$16*(2*RAND()-1))</f>
+        <v>-1183.81285187649</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>118.316954481274</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D69+2*$B$14*RAND()-$B$14)</f>
-        <v>667.889231144904</v>
+      <c r="D69" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>47.7064354933798</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D69+$B$16*(2*RAND()-1))</f>
+        <v>-441.857480102772</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>107.932508002841</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D70+2*$B$14*RAND()-$B$14)</f>
-        <v>572.562216745042</v>
+      <c r="D70" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>88.320517522775</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D70+$B$16*(2*RAND()-1))</f>
+        <v>-812.879630881578</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>113.727317171206</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D71+2*$B$14*RAND()-$B$14)</f>
-        <v>605.31931753476</v>
+      <c r="D71" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>113.146978331215</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D71+$B$16*(2*RAND()-1))</f>
+        <v>-916.162626006339</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>70.5937340384438</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D72+2*$B$14*RAND()-$B$14)</f>
-        <v>411.948109161311</v>
+      <c r="D72" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>43.5377598438295</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D72+$B$16*(2*RAND()-1))</f>
+        <v>-520.338604401527</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>119.84853638087</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D73+2*$B$14*RAND()-$B$14)</f>
-        <v>630.641412820683</v>
+      <c r="D73" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>114.431378169262</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D73+$B$16*(2*RAND()-1))</f>
+        <v>-1004.46210852389</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>126.031594166364</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D74+2*$B$14*RAND()-$B$14)</f>
-        <v>682.546554332821</v>
+      <c r="D74" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>122.533154470637</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D74+$B$16*(2*RAND()-1))</f>
+        <v>-1109.30906786304</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>56.5559546604834</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D75+2*$B$14*RAND()-$B$14)</f>
-        <v>363.002079816556</v>
+      <c r="D75" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>85.4240154321023</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D75+$B$16*(2*RAND()-1))</f>
+        <v>-1024.38494080735</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>82.3271123017305</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D76+2*$B$14*RAND()-$B$14)</f>
-        <v>478.785003361624</v>
+      <c r="D76" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>83.0620422857553</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D76+$B$16*(2*RAND()-1))</f>
+        <v>-812.194206314528</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>72.1005672354462</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D77+2*$B$14*RAND()-$B$14)</f>
-        <v>406.161808769958</v>
+      <c r="D77" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>73.4551697147638</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D77+$B$16*(2*RAND()-1))</f>
+        <v>-612.013674825755</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>40.7291740839986</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D78+2*$B$14*RAND()-$B$14)</f>
-        <v>240.75843676428</v>
+      <c r="D78" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>81.9336737164601</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D78+$B$16*(2*RAND()-1))</f>
+        <v>-624.334769498327</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>70.3430568837692</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D79+2*$B$14*RAND()-$B$14)</f>
-        <v>385.109872841375</v>
+      <c r="D79" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>94.0065488926174</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D79+$B$16*(2*RAND()-1))</f>
+        <v>-835.371898008841</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>61.9404670115388</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D80+2*$B$14*RAND()-$B$14)</f>
-        <v>346.577590970373</v>
+      <c r="D80" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>48.0782848976427</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D80+$B$16*(2*RAND()-1))</f>
+        <v>-469.005213999186</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>110.610571982531</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D81+2*$B$14*RAND()-$B$14)</f>
-        <v>594.113363497602</v>
+      <c r="D81" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>43.0038340042894</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D81+$B$16*(2*RAND()-1))</f>
+        <v>-537.381958288958</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>109.781214827129</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D82+2*$B$14*RAND()-$B$14)</f>
-        <v>627.772700677042</v>
+      <c r="D82" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>88.6242750749909</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D82+$B$16*(2*RAND()-1))</f>
+        <v>-1008.13143650317</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>129.938846158453</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D83+2*$B$14*RAND()-$B$14)</f>
-        <v>736.785417241461</v>
+      <c r="D83" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>122.702170701465</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D83+$B$16*(2*RAND()-1))</f>
+        <v>-1179.93775374456</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>109.389728761588</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D84+2*$B$14*RAND()-$B$14)</f>
-        <v>616.72055961255</v>
+      <c r="D84" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>92.1013535921144</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D84+$B$16*(2*RAND()-1))</f>
+        <v>-766.655473551797</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>74.064996626374</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D85+2*$B$14*RAND()-$B$14)</f>
-        <v>447.734926668532</v>
+      <c r="D85" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>128.298241456579</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D85+$B$16*(2*RAND()-1))</f>
+        <v>-1283.62466354187</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>116.723429132648</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D86+2*$B$14*RAND()-$B$14)</f>
-        <v>662.231706004269</v>
+      <c r="D86" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>101.693100192556</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D86+$B$16*(2*RAND()-1))</f>
+        <v>-1026.43705883676</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>100.64941328302</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D87+2*$B$14*RAND()-$B$14)</f>
-        <v>555.218082315907</v>
+      <c r="D87" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>87.8235740310133</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D87+$B$16*(2*RAND()-1))</f>
+        <v>-813.808533360346</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>41.4072248908505</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D88+2*$B$14*RAND()-$B$14)</f>
-        <v>248.286048239869</v>
+      <c r="D88" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>68.9731806016244</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D88+$B$16*(2*RAND()-1))</f>
+        <v>-799.283498541982</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>51.3544615549913</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D89+2*$B$14*RAND()-$B$14)</f>
-        <v>332.964657614908</v>
+      <c r="D89" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>80.8475239148333</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D89+$B$16*(2*RAND()-1))</f>
+        <v>-616.806580180355</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>104.538914207162</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D90+2*$B$14*RAND()-$B$14)</f>
-        <v>554.019442132004</v>
+      <c r="D90" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>42.9249520517342</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D90+$B$16*(2*RAND()-1))</f>
+        <v>-561.564831377487</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>45.102154064077</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D91+2*$B$14*RAND()-$B$14)</f>
-        <v>269.964390657881</v>
+      <c r="D91" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>49.6606851912008</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D91+$B$16*(2*RAND()-1))</f>
+        <v>-340.040823031381</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>118.970824185096</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D92+2*$B$14*RAND()-$B$14)</f>
-        <v>661.327769204324</v>
+      <c r="D92" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>49.5522172277416</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D92+$B$16*(2*RAND()-1))</f>
+        <v>-656.429885811889</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>55.4547938501809</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D93+2*$B$14*RAND()-$B$14)</f>
-        <v>312.889497984039</v>
+      <c r="D93" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>72.7936291906141</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D93+$B$16*(2*RAND()-1))</f>
+        <v>-681.686348386074</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>107.002867391618</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D94+2*$B$14*RAND()-$B$14)</f>
-        <v>584.678263002825</v>
+      <c r="D94" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>41.8466544950952</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D94+$B$16*(2*RAND()-1))</f>
+        <v>-211.849416591201</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>79.5279698165197</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D95+2*$B$14*RAND()-$B$14)</f>
-        <v>442.354702616232</v>
+      <c r="D95" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>96.064394977086</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D95+$B$16*(2*RAND()-1))</f>
+        <v>-756.199947169585</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>58.8036514989554</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D96+2*$B$14*RAND()-$B$14)</f>
-        <v>376.539863922904</v>
+      <c r="D96" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>73.1114651607912</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D96+$B$16*(2*RAND()-1))</f>
+        <v>-890.688452203803</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>60.9139589897528</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D97+2*$B$14*RAND()-$B$14)</f>
-        <v>386.929140093157</v>
+      <c r="D97" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>54.6075356272525</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D97+$B$16*(2*RAND()-1))</f>
+        <v>-373.579494397117</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>71.5714436298648</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D98+2*$B$14*RAND()-$B$14)</f>
-        <v>394.362992792554</v>
+      <c r="D98" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>58.5102736487541</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D98+$B$16*(2*RAND()-1))</f>
+        <v>-535.650032320111</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>112.769247291254</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D99+2*$B$14*RAND()-$B$14)</f>
-        <v>651.504217110099</v>
+      <c r="D99" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>101.588764961768</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D99+$B$16*(2*RAND()-1))</f>
+        <v>-734.314318667437</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>57.6670321206755</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D100+2*$B$14*RAND()-$B$14)</f>
-        <v>321.898189818062</v>
+      <c r="D100" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>63.400970427604</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D100+$B$16*(2*RAND()-1))</f>
+        <v>-340.945719006711</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>101.133495974897</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D101+2*$B$14*RAND()-$B$14)</f>
-        <v>541.470805786895</v>
+      <c r="D101" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>107.424177238042</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D101+$B$16*(2*RAND()-1))</f>
+        <v>-858.059660052325</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>93.245761459225</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D102+2*$B$14*RAND()-$B$14)</f>
-        <v>532.512915355933</v>
+      <c r="D102" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>129.26086625051</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D102+$B$16*(2*RAND()-1))</f>
+        <v>-1254.88657918462</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>75.5409886935796</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D103+2*$B$14*RAND()-$B$14)</f>
-        <v>428.225412459941</v>
+      <c r="D103" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>129.046838835951</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D103+$B$16*(2*RAND()-1))</f>
+        <v>-1142.12401720175</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>108.098722743687</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <f aca="true">($B$7+$B$8*D104+2*$B$14*RAND()-$B$14)</f>
-        <v>625.803313485903</v>
+      <c r="D104" s="0" t="n">
+        <f aca="true">RAND()*($B$9-$B$8)+$B$8</f>
+        <v>75.5851013201028</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <f aca="true">($B$12+$B$13*D104+$B$16*(2*RAND()-1))</f>
+        <v>-894.859667618756</v>
       </c>
     </row>
   </sheetData>
@@ -3370,1065 +3427,1065 @@
       <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="0" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="0" t="s">
-        <v>8</v>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.03736856411756</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.99816551931315</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <f aca="true">$B$7*(E5-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.64387432028078</v>
+        <v>5.97205269553875</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.40407645793662</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.49101109157527</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <f aca="true">$B$7*(E6-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.29139908174171</v>
+        <v>4.72766703664104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.66116478631136</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.25883038216094</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <f aca="true">$B$7*(E7-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.92811051090638</v>
+        <v>4.69774962079081</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <f aca="false">AVERAGE(B11:B12)</f>
         <v>7.5</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.21018905914273</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.96103616801092</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <f aca="true">$B$7*(E8-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.85766732933208</v>
+        <v>5.50617392816419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.60207411064712</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="true">$B$7*(E9-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>8.51774929091087</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.11074550141964</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="true">$B$7*(E10-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>3.29083334322433</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.44098822729958</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="true">$B$7*(E11-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
+        <v>6.26852495401439</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.16627748294901</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="true">$B$7*(E9-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.10660496100351</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.6473012689861</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="true">$B$7*(E10-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.57468166379097</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.67533351189451</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <f aca="true">$B$7*(E11-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.24802634374522</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.27430037550207</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.43408503717784</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <f aca="true">$B$7*(E12-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.69003453590269</v>
+        <v>5.69635175150128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.72738246889435</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.9697513965608</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <f aca="true">$B$7*(E13-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.76075901781329</v>
+        <v>7.12571538727624</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="n">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.2222891724136</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.54612311186618</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <f aca="true">$B$7*(E14-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.37858620141276</v>
+        <v>4.51347119504617</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.85511389932163</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="E15" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.40366897429379</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <f aca="true">$B$7*(E15-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.69114602100417</v>
+        <v>5.75008689572761</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.67768062996006</v>
-      </c>
-      <c r="F16" s="1" t="n">
+      <c r="E16" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.77659175941516</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <f aca="true">$B$7*(E16-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.59550186165088</v>
+        <v>6.25199858801692</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.78465119801036</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="E17" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.58374978415594</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <f aca="true">$B$7*(E17-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.70460392195588</v>
+        <v>4.5698125455895</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.81639453674467</v>
-      </c>
-      <c r="F18" s="1" t="n">
+      <c r="E18" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.67709969122844</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <f aca="true">$B$7*(E18-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.4962682711724</v>
+        <v>6.79649580441423</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.14189339313556</v>
-      </c>
-      <c r="F19" s="1" t="n">
+      <c r="E19" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.64901062078039</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <f aca="true">$B$7*(E19-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.2723927253079</v>
+        <v>7.13552981892359</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.57251732214987</v>
-      </c>
-      <c r="F20" s="1" t="n">
+      <c r="E20" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.54747502923864</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <f aca="true">$B$7*(E20-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.42149331731317</v>
+        <v>5.86532470544224</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.48381207008325</v>
-      </c>
-      <c r="F21" s="1" t="n">
+      <c r="E21" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.04844790009648</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <f aca="true">$B$7*(E21-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.98732407041911</v>
+        <v>3.07007963982558</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.90711296522967</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="E22" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.29885303112443</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <f aca="true">$B$7*(E22-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.06560114734565</v>
+        <v>4.20472465661623</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.96744383966928</v>
-      </c>
-      <c r="F23" s="1" t="n">
+      <c r="E23" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.85360444304358</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <f aca="true">$B$7*(E23-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.9323123434024</v>
+        <v>3.08774060816616</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.72314234246086</v>
-      </c>
-      <c r="F24" s="1" t="n">
+      <c r="E24" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.96653059132462</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <f aca="true">$B$7*(E24-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.70050992793323</v>
+        <v>3.49005221585056</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.71579311892463</v>
-      </c>
-      <c r="F25" s="1" t="n">
+      <c r="E25" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.62436770466331</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <f aca="true">$B$7*(E25-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.73889050878793</v>
+        <v>3.31247403872426</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.456296055369</v>
-      </c>
-      <c r="F26" s="1" t="n">
+      <c r="E26" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.1214865160747</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <f aca="true">$B$7*(E26-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.15126917982902</v>
+        <v>4.71105008759221</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.39357596300241</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="E27" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.9655985578894</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <f aca="true">$B$7*(E27-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.18040239146834</v>
+        <v>8.96702556575528</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.75776879453246</v>
-      </c>
-      <c r="F28" s="1" t="n">
+      <c r="E28" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.03149831339461</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <f aca="true">$B$7*(E28-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.6289665430412</v>
+        <v>5.03532570040101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.20339197797467</v>
-      </c>
-      <c r="F29" s="1" t="n">
+      <c r="E29" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.46004438306665</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <f aca="true">$B$7*(E29-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.87483073829806</v>
+        <v>7.9342354946033</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.42794772649689</v>
-      </c>
-      <c r="F30" s="1" t="n">
+      <c r="E30" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.12800719672253</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <f aca="true">$B$7*(E30-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.72975958030236</v>
+        <v>3.2590270318192</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.79647053366411</v>
-      </c>
-      <c r="F31" s="1" t="n">
+      <c r="E31" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.84655906466</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <f aca="true">$B$7*(E31-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.27481302302448</v>
+        <v>3.62193916151602</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.02932140422854</v>
-      </c>
-      <c r="F32" s="1" t="n">
+      <c r="E32" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.69282711733061</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <f aca="true">$B$7*(E32-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.53582797426629</v>
+        <v>2.83823591891675</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.90071593794277</v>
-      </c>
-      <c r="F33" s="1" t="n">
+      <c r="E33" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.70566347775301</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <f aca="true">$B$7*(E33-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.64378787277627</v>
+        <v>3.75007842580521</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.00893137758635</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="E34" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.86345144365461</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <f aca="true">$B$7*(E34-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.26714753584528</v>
+        <v>6.57536444783903</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.67018074094582</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="E35" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.78574544513145</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <f aca="true">$B$7*(E35-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.00509862594045</v>
+        <v>5.36499958081069</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.53026963969445</v>
-      </c>
-      <c r="F36" s="1" t="n">
+      <c r="E36" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.09771045007781</v>
+      </c>
+      <c r="F36" s="2" t="n">
         <f aca="true">$B$7*(E36-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.77517819272246</v>
+        <v>9.83252258666941</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.88038652214873</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="E37" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.21623727706429</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <f aca="true">$B$7*(E37-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.5073208200441</v>
+        <v>5.27575176067283</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.77787866499954</v>
-      </c>
-      <c r="F38" s="1" t="n">
+      <c r="E38" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.7931132886731</v>
+      </c>
+      <c r="F38" s="2" t="n">
         <f aca="true">$B$7*(E38-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.20758500919449</v>
+        <v>7.55777940311706</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.87491045641688</v>
-      </c>
-      <c r="F39" s="1" t="n">
+      <c r="E39" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.63082126084787</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <f aca="true">$B$7*(E39-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.26041891772631</v>
+        <v>4.5347304676115</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.05267562037959</v>
-      </c>
-      <c r="F40" s="1" t="n">
+      <c r="E40" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.10168663313847</v>
+      </c>
+      <c r="F40" s="2" t="n">
         <f aca="true">$B$7*(E40-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.14337119468246</v>
+        <v>5.24171978225387</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.09916356878638</v>
-      </c>
-      <c r="F41" s="1" t="n">
+      <c r="E41" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.08912889863063</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <f aca="true">$B$7*(E41-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.94021755892328</v>
+        <v>6.81705394586582</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.69340393981787</v>
-      </c>
-      <c r="F42" s="1" t="n">
+      <c r="E42" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.86899419211565</v>
+      </c>
+      <c r="F42" s="2" t="n">
         <f aca="true">$B$7*(E42-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.47664661648422</v>
+        <v>5.53727148807499</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.39544444333908</v>
-      </c>
-      <c r="F43" s="1" t="n">
+      <c r="E43" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.00646941013816</v>
+      </c>
+      <c r="F43" s="2" t="n">
         <f aca="true">$B$7*(E43-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.25046491345152</v>
+        <v>10.3435578494417</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.16401731434014</v>
-      </c>
-      <c r="F44" s="1" t="n">
+      <c r="E44" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.84010203234596</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <f aca="true">$B$7*(E44-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.50571162838917</v>
+        <v>3.32648653177071</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.54452736113081</v>
-      </c>
-      <c r="F45" s="1" t="n">
+      <c r="E45" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.9269644155429</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <f aca="true">$B$7*(E45-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.50348407656892</v>
+        <v>3.7111315147285</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.51490071746803</v>
-      </c>
-      <c r="F46" s="1" t="n">
+      <c r="E46" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.39306791216563</v>
+      </c>
+      <c r="F46" s="2" t="n">
         <f aca="true">$B$7*(E46-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.05082721034239</v>
+        <v>5.54303456345505</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.69842615511134</v>
-      </c>
-      <c r="F47" s="1" t="n">
+      <c r="E47" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.48847938371712</v>
+      </c>
+      <c r="F47" s="2" t="n">
         <f aca="true">$B$7*(E47-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.10164728631271</v>
+        <v>4.19290865798772</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.51117954393746</v>
-      </c>
-      <c r="F48" s="1" t="n">
+      <c r="E48" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.04182017930393</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <f aca="true">$B$7*(E48-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.73785184018119</v>
+        <v>5.12605402117212</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.27928258878258</v>
-      </c>
-      <c r="F49" s="1" t="n">
+      <c r="E49" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.02029206361619</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <f aca="true">$B$7*(E49-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.91912929683714</v>
+        <v>6.44038395946876</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.65856816661784</v>
-      </c>
-      <c r="F50" s="1" t="n">
+      <c r="E50" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.00797447869435</v>
+      </c>
+      <c r="F50" s="2" t="n">
         <f aca="true">$B$7*(E50-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.75781011296626</v>
+        <v>4.56021447698469</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.14623458861727</v>
-      </c>
-      <c r="F51" s="1" t="n">
+      <c r="E51" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.28286331344135</v>
+      </c>
+      <c r="F51" s="2" t="n">
         <f aca="true">$B$7*(E51-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.99492018203755</v>
+        <v>8.0647277774396</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.6069402053371</v>
-      </c>
-      <c r="F52" s="1" t="n">
+      <c r="E52" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.60191447346362</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <f aca="true">$B$7*(E52-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.07878515693491</v>
+        <v>3.96085166464621</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.4812441720969</v>
-      </c>
-      <c r="F53" s="1" t="n">
+      <c r="E53" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.46476906461783</v>
+      </c>
+      <c r="F53" s="2" t="n">
         <f aca="true">$B$7*(E53-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.60171493561382</v>
+        <v>5.29540439436425</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.40798042479476</v>
-      </c>
-      <c r="F54" s="1" t="n">
+      <c r="E54" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.70155183445761</v>
+      </c>
+      <c r="F54" s="2" t="n">
         <f aca="true">$B$7*(E54-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.36907482225248</v>
+        <v>7.40708832926262</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.45874278976712</v>
-      </c>
-      <c r="F55" s="1" t="n">
+      <c r="E55" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.15081118604303</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <f aca="true">$B$7*(E55-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.29975649819439</v>
+        <v>4.57127991909075</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.12855289467304</v>
-      </c>
-      <c r="F56" s="1" t="n">
+      <c r="E56" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.23541008114333</v>
+      </c>
+      <c r="F56" s="2" t="n">
         <f aca="true">$B$7*(E56-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.45854658338919</v>
+        <v>7.74771323253932</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.72345596342873</v>
-      </c>
-      <c r="F57" s="1" t="n">
+      <c r="E57" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.73121223950299</v>
+      </c>
+      <c r="F57" s="2" t="n">
         <f aca="true">$B$7*(E57-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.9028927948089</v>
+        <v>5.23549916925906</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.15414550384465</v>
-      </c>
-      <c r="F58" s="1" t="n">
+      <c r="E58" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.83702267862807</v>
+      </c>
+      <c r="F58" s="2" t="n">
         <f aca="true">$B$7*(E58-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.85187116833578</v>
+        <v>4.25561983101804</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.96414144167644</v>
-      </c>
-      <c r="F59" s="1" t="n">
+      <c r="E59" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.15562022948796</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <f aca="true">$B$7*(E59-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>2.84525450731598</v>
+        <v>5.53123595692508</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.5042261573473</v>
-      </c>
-      <c r="F60" s="1" t="n">
+      <c r="E60" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.52276125850033</v>
+      </c>
+      <c r="F60" s="2" t="n">
         <f aca="true">$B$7*(E60-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.50513204268491</v>
+        <v>4.17840238438402</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.15484479878267</v>
-      </c>
-      <c r="F61" s="1" t="n">
+      <c r="E61" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.37784726149263</v>
+      </c>
+      <c r="F61" s="2" t="n">
         <f aca="true">$B$7*(E61-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.41455469876142</v>
+        <v>3.55840497809339</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.92169539054537</v>
-      </c>
-      <c r="F62" s="1" t="n">
+      <c r="E62" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.86899383629675</v>
+      </c>
+      <c r="F62" s="2" t="n">
         <f aca="true">$B$7*(E62-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.41099022998629</v>
+        <v>3.51187779206573</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.11922704804877</v>
-      </c>
-      <c r="F63" s="1" t="n">
+      <c r="E63" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.92563648949384</v>
+      </c>
+      <c r="F63" s="2" t="n">
         <f aca="true">$B$7*(E63-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.21148536700549</v>
+        <v>4.70390286586051</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.84016295033756</v>
-      </c>
-      <c r="F64" s="1" t="n">
+      <c r="E64" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.26596937076455</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <f aca="true">$B$7*(E64-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>2.7939594410396</v>
+        <v>6.57818412341489</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.02968319073813</v>
-      </c>
-      <c r="F65" s="1" t="n">
+      <c r="E65" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.35189260686514</v>
+      </c>
+      <c r="F65" s="2" t="n">
         <f aca="true">$B$7*(E65-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.7074497937235</v>
+        <v>4.68647100175103</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.61889569721189</v>
-      </c>
-      <c r="F66" s="1" t="n">
+      <c r="E66" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.20136184910608</v>
+      </c>
+      <c r="F66" s="2" t="n">
         <f aca="true">$B$7*(E66-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.52870483594774</v>
+        <v>4.60893706747207</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.62145100756836</v>
-      </c>
-      <c r="F67" s="1" t="n">
+      <c r="E67" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.11671188254981</v>
+      </c>
+      <c r="F67" s="2" t="n">
         <f aca="true">$B$7*(E67-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.66364368659199</v>
+        <v>6.40172756609839</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.88699793848481</v>
-      </c>
-      <c r="F68" s="1" t="n">
+      <c r="E68" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.3299488298063</v>
+      </c>
+      <c r="F68" s="2" t="n">
         <f aca="true">$B$7*(E68-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>10.569509964585</v>
+        <v>7.58066041141565</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.98130673639973</v>
-      </c>
-      <c r="F69" s="1" t="n">
+      <c r="E69" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.89597426646063</v>
+      </c>
+      <c r="F69" s="2" t="n">
         <f aca="true">$B$7*(E69-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.2050144881764</v>
+        <v>4.88774616317461</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.51144639313472</v>
-      </c>
-      <c r="F70" s="1" t="n">
+      <c r="E70" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.57693210115262</v>
+      </c>
+      <c r="F70" s="2" t="n">
         <f aca="true">$B$7*(E70-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.46050289726532</v>
+        <v>4.20315172644418</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.66517065572449</v>
-      </c>
-      <c r="F71" s="1" t="n">
+      <c r="E71" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.75970731772925</v>
+      </c>
+      <c r="F71" s="2" t="n">
         <f aca="true">$B$7*(E71-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.40660944350293</v>
+        <v>7.92825870039484</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.24734962343343</v>
-      </c>
-      <c r="F72" s="1" t="n">
+      <c r="E72" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.88129537951028</v>
+      </c>
+      <c r="F72" s="2" t="n">
         <f aca="true">$B$7*(E72-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.48607915558039</v>
+        <v>4.73219386050045</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.89633364806669</v>
-      </c>
-      <c r="F73" s="1" t="n">
+      <c r="E73" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>8.22860719011213</v>
+      </c>
+      <c r="F73" s="2" t="n">
         <f aca="true">$B$7*(E73-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.30578583018649</v>
+        <v>4.95710052918971</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.42153390497239</v>
-      </c>
-      <c r="F74" s="1" t="n">
+      <c r="E74" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.20084622938327</v>
+      </c>
+      <c r="F74" s="2" t="n">
         <f aca="true">$B$7*(E74-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.07914179145525</v>
+        <v>6.70167770025292</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.54634120124068</v>
-      </c>
-      <c r="F75" s="1" t="n">
+      <c r="E75" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.41666278740488</v>
+      </c>
+      <c r="F75" s="2" t="n">
         <f aca="true">$B$7*(E75-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.72906305156347</v>
+        <v>7.25141063956951</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.01702537168321</v>
-      </c>
-      <c r="F76" s="1" t="n">
+      <c r="E76" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.74411368231138</v>
+      </c>
+      <c r="F76" s="2" t="n">
         <f aca="true">$B$7*(E76-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.40828851869429</v>
+        <v>7.55670761051626</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.72104959649369</v>
-      </c>
-      <c r="F77" s="1" t="n">
+      <c r="E77" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.13614636274074</v>
+      </c>
+      <c r="F77" s="2" t="n">
         <f aca="true">$B$7*(E77-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.74911875687444</v>
+        <v>6.33275476108064</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.13886794425455</v>
-      </c>
-      <c r="F78" s="1" t="n">
+      <c r="E78" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.56832340613048</v>
+      </c>
+      <c r="F78" s="2" t="n">
         <f aca="true">$B$7*(E78-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.58613427738376</v>
+        <v>5.70589293649714</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.43188737534147</v>
-      </c>
-      <c r="F79" s="1" t="n">
+      <c r="E79" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.86284646685838</v>
+      </c>
+      <c r="F79" s="2" t="n">
         <f aca="true">$B$7*(E79-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.83575793337579</v>
+        <v>5.68209679836117</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.29295236709095</v>
-      </c>
-      <c r="F80" s="1" t="n">
+      <c r="E80" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.39442824846435</v>
+      </c>
+      <c r="F80" s="2" t="n">
         <f aca="true">$B$7*(E80-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.57176238518712</v>
+        <v>7.31482711973041</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.94194881169826</v>
-      </c>
-      <c r="F81" s="1" t="n">
+      <c r="E81" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.17036179618962</v>
+      </c>
+      <c r="F81" s="2" t="n">
         <f aca="true">$B$7*(E81-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.12048117004503</v>
+        <v>5.66327879403242</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.29276159059298</v>
-      </c>
-      <c r="F82" s="1" t="n">
+      <c r="E82" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.56408019519756</v>
+      </c>
+      <c r="F82" s="2" t="n">
         <f aca="true">$B$7*(E82-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.74170715478478</v>
+        <v>4.94486453761313</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.17684133046068</v>
-      </c>
-      <c r="F83" s="1" t="n">
+      <c r="E83" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.73221054394997</v>
+      </c>
+      <c r="F83" s="2" t="n">
         <f aca="true">$B$7*(E83-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.87331264233067</v>
+        <v>3.92933391610117</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.41092388316367</v>
-      </c>
-      <c r="F84" s="1" t="n">
+      <c r="E84" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.77950789443865</v>
+      </c>
+      <c r="F84" s="2" t="n">
         <f aca="true">$B$7*(E84-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.67261687824377</v>
+        <v>8.0343780748956</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.45314788065139</v>
-      </c>
-      <c r="F85" s="1" t="n">
+      <c r="E85" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.18433639005857</v>
+      </c>
+      <c r="F85" s="2" t="n">
         <f aca="true">$B$7*(E85-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.75035823546341</v>
+        <v>9.99483071240112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.33109806558556</v>
-      </c>
-      <c r="F86" s="1" t="n">
+      <c r="E86" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.45263419313229</v>
+      </c>
+      <c r="F86" s="2" t="n">
         <f aca="true">$B$7*(E86-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.46451959873173</v>
+        <v>8.03618345796107</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.51888368512073</v>
-      </c>
-      <c r="F87" s="1" t="n">
+      <c r="E87" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.23795003127612</v>
+      </c>
+      <c r="F87" s="2" t="n">
         <f aca="true">$B$7*(E87-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>8.55243877383781</v>
+        <v>6.90298493284723</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.09017540498473</v>
-      </c>
-      <c r="F88" s="1" t="n">
+      <c r="E88" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.29122461925692</v>
+      </c>
+      <c r="F88" s="2" t="n">
         <f aca="true">$B$7*(E88-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.79254920318164</v>
+        <v>7.68088475707776</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.49018166711709</v>
-      </c>
-      <c r="F89" s="1" t="n">
+      <c r="E89" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.03783255205518</v>
+      </c>
+      <c r="F89" s="2" t="n">
         <f aca="true">$B$7*(E89-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.06987444327501</v>
+        <v>6.96153078161722</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.37985369144564</v>
-      </c>
-      <c r="F90" s="1" t="n">
+      <c r="E90" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.55481129181286</v>
+      </c>
+      <c r="F90" s="2" t="n">
         <f aca="true">$B$7*(E90-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.36560813075884</v>
+        <v>8.76295262673809</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.46773893700145</v>
-      </c>
-      <c r="F91" s="1" t="n">
+      <c r="E91" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>9.90896109320054</v>
+      </c>
+      <c r="F91" s="2" t="n">
         <f aca="true">$B$7*(E91-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.98517955356011</v>
+        <v>10.1828657998925</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.98498105394613</v>
-      </c>
-      <c r="F92" s="1" t="n">
+      <c r="E92" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.40148961874733</v>
+      </c>
+      <c r="F92" s="2" t="n">
         <f aca="true">$B$7*(E92-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.15969745443877</v>
+        <v>3.47385954933432</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.83465963719229</v>
-      </c>
-      <c r="F93" s="1" t="n">
+      <c r="E93" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.03528418439166</v>
+      </c>
+      <c r="F93" s="2" t="n">
         <f aca="true">$B$7*(E93-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.44983249862533</v>
+        <v>3.66733516304825</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>7.83102092940584</v>
-      </c>
-      <c r="F94" s="1" t="n">
+      <c r="E94" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.00754393044011</v>
+      </c>
+      <c r="F94" s="2" t="n">
         <f aca="true">$B$7*(E94-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.43300107333533</v>
+        <v>9.34019458339711</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.01208864298532</v>
-      </c>
-      <c r="F95" s="1" t="n">
+      <c r="E95" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.55117469052194</v>
+      </c>
+      <c r="F95" s="2" t="n">
         <f aca="true">$B$7*(E95-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.14280988305283</v>
+        <v>2.74867539180246</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.99474579157254</v>
-      </c>
-      <c r="F96" s="1" t="n">
+      <c r="E96" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.39707764694316</v>
+      </c>
+      <c r="F96" s="2" t="n">
         <f aca="true">$B$7*(E96-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.03715504460221</v>
+        <v>3.94885362674718</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.33935988513762</v>
-      </c>
-      <c r="F97" s="1" t="n">
+      <c r="E97" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.91489640530943</v>
+      </c>
+      <c r="F97" s="2" t="n">
         <f aca="true">$B$7*(E97-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.02802077151223</v>
+        <v>6.00241811486314</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.08161898740423</v>
-      </c>
-      <c r="F98" s="1" t="n">
+      <c r="E98" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.1083665929003</v>
+      </c>
+      <c r="F98" s="2" t="n">
         <f aca="true">$B$7*(E98-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.5469651282493</v>
+        <v>4.66259833905199</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.62704193683511</v>
-      </c>
-      <c r="F99" s="1" t="n">
+      <c r="E99" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.61779129092672</v>
+      </c>
+      <c r="F99" s="2" t="n">
         <f aca="true">$B$7*(E99-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>5.78840400079603</v>
+        <v>4.35307322305927</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.13726185546588</v>
-      </c>
-      <c r="F100" s="1" t="n">
+      <c r="E100" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.64061967307034</v>
+      </c>
+      <c r="F100" s="2" t="n">
         <f aca="true">$B$7*(E100-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>3.61967690559094</v>
+        <v>3.75517314209953</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>5.80462296766544</v>
-      </c>
-      <c r="F101" s="1" t="n">
+      <c r="E101" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>7.78014849296463</v>
+      </c>
+      <c r="F101" s="2" t="n">
         <f aca="true">$B$7*(E101-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>7.4332492475123</v>
+        <v>3.24758650761482</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>6.00366150183688</v>
-      </c>
-      <c r="F102" s="1" t="n">
+      <c r="E102" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.33162861654418</v>
+      </c>
+      <c r="F102" s="2" t="n">
         <f aca="true">$B$7*(E102-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>4.92291061267405</v>
+        <v>4.14330322629345</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>8.9192782196663</v>
-      </c>
-      <c r="F103" s="1" t="n">
+      <c r="E103" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>5.3537942114704</v>
+      </c>
+      <c r="F103" s="2" t="n">
         <f aca="true">$B$7*(E103-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>6.52701424341455</v>
+        <v>8.53146504037288</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="1" t="n">
-        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
-        <v>9.77578385527154</v>
-      </c>
-      <c r="F104" s="1" t="n">
+      <c r="E104" s="2" t="n">
+        <f aca="true">RAND()*($B$12-$B$11)+$B$11</f>
+        <v>6.8921068094704</v>
+      </c>
+      <c r="F104" s="2" t="n">
         <f aca="true">$B$7*(E104-$B$8)^2+$B$9+$B$14*RAND()-$B$14</f>
-        <v>9.78991153439811</v>
+        <v>4.44925791498757</v>
       </c>
     </row>
   </sheetData>
